--- a/nparcel/tests/files/ADP-Bulk-Load.xlsx
+++ b/nparcel/tests/files/ADP-Bulk-Load.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="6420" windowWidth="20480" windowHeight="15620"/>
+    <workbookView xWindow="-360" yWindow="25760" windowWidth="20480" windowHeight="15620"/>
   </bookViews>
   <sheets>
     <sheet name="Export Worksheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="829">
   <si>
     <t>V001</t>
   </si>
@@ -2489,6 +2489,24 @@
   </si>
   <si>
     <t>Active</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Login Status</t>
+  </si>
+  <si>
+    <t>DP Id</t>
+  </si>
+  <si>
+    <t>Nparcel</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -2537,8 +2555,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2565,7 +2595,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="35">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2577,6 +2607,12 @@
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2588,6 +2624,12 @@
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2920,31 +2962,34 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q100"/>
+  <dimension ref="A1:T100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C101" sqref="A101:XFD653"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="133.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="21" customWidth="1"/>
-    <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="6" max="6" width="42" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="64.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="133.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="21" customWidth="1"/>
+    <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>806</v>
       </c>
@@ -2952,52 +2997,61 @@
         <v>807</v>
       </c>
       <c r="C1" t="s">
+        <v>823</v>
+      </c>
+      <c r="D1" t="s">
+        <v>824</v>
+      </c>
+      <c r="E1" t="s">
+        <v>825</v>
+      </c>
+      <c r="F1" t="s">
         <v>808</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>809</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>810</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>811</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>812</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>813</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>814</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>815</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>816</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>817</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>818</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>819</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>820</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>821</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3005,40 +3059,49 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>827</v>
+      </c>
+      <c r="E2" t="s">
+        <v>826</v>
+      </c>
+      <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>4</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
         <v>5</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="T2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -3046,43 +3109,52 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>827</v>
+      </c>
+      <c r="E3" t="s">
+        <v>826</v>
+      </c>
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
         <v>21</v>
       </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>22</v>
       </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>23</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>12</v>
       </c>
-      <c r="M3" t="s">
+      <c r="P3" t="s">
         <v>16</v>
       </c>
-      <c r="O3" t="s">
+      <c r="R3" t="s">
         <v>17</v>
       </c>
-      <c r="P3" t="s">
+      <c r="S3" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="T3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -3090,37 +3162,46 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>827</v>
+      </c>
+      <c r="E4" t="s">
+        <v>826</v>
+      </c>
+      <c r="F4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>31</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
         <v>10</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
         <v>32</v>
       </c>
-      <c r="H4" t="s">
+      <c r="K4" t="s">
         <v>33</v>
       </c>
-      <c r="M4" t="s">
+      <c r="P4" t="s">
         <v>27</v>
       </c>
-      <c r="O4" t="s">
+      <c r="R4" t="s">
         <v>28</v>
       </c>
-      <c r="P4" t="s">
+      <c r="S4" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="T4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -3128,22 +3209,31 @@
         <v>35</v>
       </c>
       <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>827</v>
+      </c>
+      <c r="E5" t="s">
+        <v>826</v>
+      </c>
+      <c r="F5" t="s">
         <v>36</v>
       </c>
-      <c r="F5" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="I5" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" t="s">
         <v>37</v>
       </c>
-      <c r="O5" t="s">
+      <c r="R5" t="s">
         <v>38</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="T5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -3151,34 +3241,43 @@
         <v>42</v>
       </c>
       <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>827</v>
+      </c>
+      <c r="E6" t="s">
+        <v>826</v>
+      </c>
+      <c r="F6" t="s">
         <v>43</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G6" t="s">
         <v>46</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H6" t="s">
         <v>47</v>
       </c>
-      <c r="F6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" t="s">
         <v>48</v>
       </c>
-      <c r="H6" t="s">
+      <c r="K6" t="s">
         <v>49</v>
       </c>
-      <c r="M6" t="s">
+      <c r="P6" t="s">
         <v>44</v>
       </c>
-      <c r="P6" t="s">
+      <c r="S6" t="s">
         <v>45</v>
       </c>
-      <c r="Q6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="T6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3186,31 +3285,40 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>827</v>
+      </c>
+      <c r="E7" t="s">
+        <v>826</v>
+      </c>
+      <c r="F7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" t="s">
+      <c r="G7" t="s">
         <v>54</v>
       </c>
-      <c r="E7" t="s">
+      <c r="H7" t="s">
         <v>55</v>
       </c>
-      <c r="F7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" t="s">
         <v>56</v>
       </c>
-      <c r="H7" t="s">
+      <c r="K7" t="s">
         <v>57</v>
       </c>
-      <c r="M7" t="s">
+      <c r="P7" t="s">
         <v>53</v>
       </c>
-      <c r="Q7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="T7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -3218,37 +3326,46 @@
         <v>59</v>
       </c>
       <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" t="s">
+        <v>827</v>
+      </c>
+      <c r="E8" t="s">
+        <v>826</v>
+      </c>
+      <c r="F8" t="s">
         <v>60</v>
       </c>
-      <c r="D8" t="s">
+      <c r="G8" t="s">
         <v>62</v>
       </c>
-      <c r="E8" t="s">
+      <c r="H8" t="s">
         <v>63</v>
       </c>
-      <c r="F8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" t="s">
         <v>64</v>
       </c>
-      <c r="H8" t="s">
+      <c r="K8" t="s">
         <v>65</v>
       </c>
-      <c r="L8" t="s">
+      <c r="O8" t="s">
         <v>12</v>
-      </c>
-      <c r="M8" t="s">
-        <v>61</v>
       </c>
       <c r="P8" t="s">
         <v>61</v>
       </c>
-      <c r="Q8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="S8" t="s">
+        <v>61</v>
+      </c>
+      <c r="T8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -3256,43 +3373,52 @@
         <v>67</v>
       </c>
       <c r="C9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" t="s">
+        <v>828</v>
+      </c>
+      <c r="E9" t="s">
+        <v>826</v>
+      </c>
+      <c r="F9" t="s">
         <v>68</v>
       </c>
-      <c r="D9" t="s">
+      <c r="G9" t="s">
         <v>70</v>
       </c>
-      <c r="E9" t="s">
+      <c r="H9" t="s">
         <v>71</v>
       </c>
-      <c r="F9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="I9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" t="s">
         <v>72</v>
       </c>
-      <c r="H9" t="s">
+      <c r="K9" t="s">
         <v>73</v>
       </c>
-      <c r="I9" t="s">
+      <c r="L9" t="s">
         <v>23</v>
       </c>
-      <c r="L9" t="s">
+      <c r="O9" t="s">
         <v>74</v>
-      </c>
-      <c r="M9" t="s">
-        <v>69</v>
-      </c>
-      <c r="O9" t="s">
-        <v>23</v>
       </c>
       <c r="P9" t="s">
         <v>69</v>
       </c>
-      <c r="Q9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9" t="s">
+        <v>23</v>
+      </c>
+      <c r="S9" t="s">
+        <v>69</v>
+      </c>
+      <c r="T9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
         <v>75</v>
       </c>
@@ -3300,34 +3426,43 @@
         <v>76</v>
       </c>
       <c r="C10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" t="s">
+        <v>827</v>
+      </c>
+      <c r="E10" t="s">
+        <v>826</v>
+      </c>
+      <c r="F10" t="s">
         <v>77</v>
       </c>
-      <c r="D10" t="s">
+      <c r="G10" t="s">
         <v>80</v>
       </c>
-      <c r="E10" t="s">
+      <c r="H10" t="s">
         <v>81</v>
       </c>
-      <c r="F10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="I10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" t="s">
         <v>82</v>
       </c>
-      <c r="H10" t="s">
+      <c r="K10" t="s">
         <v>83</v>
       </c>
-      <c r="M10" t="s">
+      <c r="P10" t="s">
         <v>78</v>
       </c>
-      <c r="P10" t="s">
+      <c r="S10" t="s">
         <v>79</v>
       </c>
-      <c r="Q10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="T10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
         <v>84</v>
       </c>
@@ -3335,37 +3470,46 @@
         <v>85</v>
       </c>
       <c r="C11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" t="s">
+        <v>827</v>
+      </c>
+      <c r="E11" t="s">
+        <v>826</v>
+      </c>
+      <c r="F11" t="s">
         <v>86</v>
       </c>
-      <c r="D11" t="s">
+      <c r="G11" t="s">
         <v>88</v>
       </c>
-      <c r="E11" t="s">
+      <c r="H11" t="s">
         <v>89</v>
       </c>
-      <c r="F11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" t="s">
         <v>90</v>
       </c>
-      <c r="H11" t="s">
+      <c r="K11" t="s">
         <v>91</v>
       </c>
-      <c r="L11" t="s">
+      <c r="O11" t="s">
         <v>12</v>
-      </c>
-      <c r="M11" t="s">
-        <v>87</v>
       </c>
       <c r="P11" t="s">
         <v>87</v>
       </c>
-      <c r="Q11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="S11" t="s">
+        <v>87</v>
+      </c>
+      <c r="T11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
         <v>92</v>
       </c>
@@ -3373,34 +3517,43 @@
         <v>93</v>
       </c>
       <c r="C12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" t="s">
+        <v>827</v>
+      </c>
+      <c r="E12" t="s">
+        <v>826</v>
+      </c>
+      <c r="F12" t="s">
         <v>94</v>
       </c>
-      <c r="D12" t="s">
+      <c r="G12" t="s">
         <v>97</v>
       </c>
-      <c r="E12" t="s">
+      <c r="H12" t="s">
         <v>98</v>
       </c>
-      <c r="F12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="I12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" t="s">
         <v>99</v>
       </c>
-      <c r="H12" t="s">
+      <c r="K12" t="s">
         <v>100</v>
       </c>
-      <c r="M12" t="s">
+      <c r="P12" t="s">
         <v>95</v>
       </c>
-      <c r="P12" t="s">
+      <c r="S12" t="s">
         <v>96</v>
       </c>
-      <c r="Q12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="T12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" t="s">
         <v>101</v>
       </c>
@@ -3408,34 +3561,43 @@
         <v>102</v>
       </c>
       <c r="C13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" t="s">
+        <v>827</v>
+      </c>
+      <c r="E13" t="s">
+        <v>826</v>
+      </c>
+      <c r="F13" t="s">
         <v>103</v>
       </c>
-      <c r="D13" t="s">
+      <c r="G13" t="s">
         <v>105</v>
       </c>
-      <c r="E13" t="s">
+      <c r="H13" t="s">
         <v>106</v>
       </c>
-      <c r="F13" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="I13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" t="s">
         <v>107</v>
       </c>
-      <c r="H13" t="s">
+      <c r="K13" t="s">
         <v>108</v>
-      </c>
-      <c r="M13" t="s">
-        <v>104</v>
       </c>
       <c r="P13" t="s">
         <v>104</v>
       </c>
-      <c r="Q13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="S13" t="s">
+        <v>104</v>
+      </c>
+      <c r="T13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
         <v>109</v>
       </c>
@@ -3443,37 +3605,46 @@
         <v>110</v>
       </c>
       <c r="C14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" t="s">
+        <v>827</v>
+      </c>
+      <c r="E14" t="s">
+        <v>826</v>
+      </c>
+      <c r="F14" t="s">
         <v>111</v>
       </c>
-      <c r="D14" t="s">
+      <c r="G14" t="s">
         <v>114</v>
       </c>
-      <c r="E14" t="s">
+      <c r="H14" t="s">
         <v>115</v>
       </c>
-      <c r="F14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="I14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" t="s">
         <v>116</v>
       </c>
-      <c r="H14" t="s">
+      <c r="K14" t="s">
         <v>117</v>
       </c>
-      <c r="L14" t="s">
+      <c r="O14" t="s">
         <v>12</v>
       </c>
-      <c r="M14" t="s">
+      <c r="P14" t="s">
         <v>112</v>
       </c>
-      <c r="P14" t="s">
+      <c r="S14" t="s">
         <v>113</v>
       </c>
-      <c r="Q14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="T14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" t="s">
         <v>118</v>
       </c>
@@ -3481,37 +3652,46 @@
         <v>119</v>
       </c>
       <c r="C15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" t="s">
+        <v>827</v>
+      </c>
+      <c r="E15" t="s">
+        <v>826</v>
+      </c>
+      <c r="F15" t="s">
         <v>120</v>
       </c>
-      <c r="D15" t="s">
+      <c r="G15" t="s">
         <v>123</v>
       </c>
-      <c r="E15" t="s">
+      <c r="H15" t="s">
         <v>124</v>
       </c>
-      <c r="F15" t="s">
+      <c r="I15" t="s">
         <v>10</v>
       </c>
-      <c r="G15" t="s">
+      <c r="J15" t="s">
         <v>125</v>
       </c>
-      <c r="H15" t="s">
+      <c r="K15" t="s">
         <v>126</v>
-      </c>
-      <c r="M15" t="s">
-        <v>121</v>
-      </c>
-      <c r="O15" t="s">
-        <v>122</v>
       </c>
       <c r="P15" t="s">
         <v>121</v>
       </c>
-      <c r="Q15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15" t="s">
+        <v>122</v>
+      </c>
+      <c r="S15" t="s">
+        <v>121</v>
+      </c>
+      <c r="T15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" t="s">
         <v>127</v>
       </c>
@@ -3519,37 +3699,46 @@
         <v>128</v>
       </c>
       <c r="C16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16" t="s">
+        <v>827</v>
+      </c>
+      <c r="E16" t="s">
+        <v>826</v>
+      </c>
+      <c r="F16" t="s">
         <v>129</v>
       </c>
-      <c r="D16" t="s">
+      <c r="G16" t="s">
         <v>131</v>
       </c>
-      <c r="E16" t="s">
+      <c r="H16" t="s">
         <v>132</v>
       </c>
-      <c r="F16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="I16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" t="s">
         <v>133</v>
       </c>
-      <c r="H16" t="s">
+      <c r="K16" t="s">
         <v>134</v>
       </c>
-      <c r="L16" t="s">
+      <c r="O16" t="s">
         <v>12</v>
-      </c>
-      <c r="M16" t="s">
-        <v>130</v>
       </c>
       <c r="P16" t="s">
         <v>130</v>
       </c>
-      <c r="Q16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="S16" t="s">
+        <v>130</v>
+      </c>
+      <c r="T16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" t="s">
         <v>135</v>
       </c>
@@ -3557,37 +3746,46 @@
         <v>136</v>
       </c>
       <c r="C17" t="s">
+        <v>136</v>
+      </c>
+      <c r="D17" t="s">
+        <v>827</v>
+      </c>
+      <c r="E17" t="s">
+        <v>826</v>
+      </c>
+      <c r="F17" t="s">
         <v>137</v>
       </c>
-      <c r="D17" t="s">
+      <c r="G17" t="s">
         <v>140</v>
       </c>
-      <c r="E17" t="s">
+      <c r="H17" t="s">
         <v>141</v>
       </c>
-      <c r="F17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="I17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" t="s">
         <v>142</v>
       </c>
-      <c r="H17" t="s">
+      <c r="K17" t="s">
         <v>143</v>
       </c>
-      <c r="L17" t="s">
+      <c r="O17" t="s">
         <v>12</v>
       </c>
-      <c r="M17" t="s">
+      <c r="P17" t="s">
         <v>138</v>
       </c>
-      <c r="P17" t="s">
+      <c r="S17" t="s">
         <v>139</v>
       </c>
-      <c r="Q17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="T17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" t="s">
         <v>144</v>
       </c>
@@ -3595,34 +3793,43 @@
         <v>145</v>
       </c>
       <c r="C18" t="s">
+        <v>145</v>
+      </c>
+      <c r="D18" t="s">
+        <v>827</v>
+      </c>
+      <c r="E18" t="s">
+        <v>826</v>
+      </c>
+      <c r="F18" t="s">
         <v>146</v>
       </c>
-      <c r="D18" t="s">
+      <c r="G18" t="s">
         <v>149</v>
       </c>
-      <c r="E18" t="s">
+      <c r="H18" t="s">
         <v>150</v>
       </c>
-      <c r="F18" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="I18" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" t="s">
         <v>151</v>
       </c>
-      <c r="H18" t="s">
+      <c r="K18" t="s">
         <v>152</v>
       </c>
-      <c r="M18" t="s">
+      <c r="P18" t="s">
         <v>147</v>
       </c>
-      <c r="P18" t="s">
+      <c r="S18" t="s">
         <v>148</v>
       </c>
-      <c r="Q18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="T18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" t="s">
         <v>153</v>
       </c>
@@ -3630,37 +3837,46 @@
         <v>154</v>
       </c>
       <c r="C19" t="s">
+        <v>154</v>
+      </c>
+      <c r="D19" t="s">
+        <v>827</v>
+      </c>
+      <c r="E19" t="s">
+        <v>826</v>
+      </c>
+      <c r="F19" t="s">
         <v>155</v>
       </c>
-      <c r="D19" t="s">
+      <c r="G19" t="s">
         <v>158</v>
       </c>
-      <c r="E19" t="s">
+      <c r="H19" t="s">
         <v>159</v>
       </c>
-      <c r="F19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="I19" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" t="s">
         <v>160</v>
       </c>
-      <c r="H19" t="s">
+      <c r="K19" t="s">
         <v>161</v>
       </c>
-      <c r="L19" t="s">
+      <c r="O19" t="s">
         <v>12</v>
       </c>
-      <c r="M19" t="s">
+      <c r="P19" t="s">
         <v>156</v>
       </c>
-      <c r="P19" t="s">
+      <c r="S19" t="s">
         <v>157</v>
       </c>
-      <c r="Q19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="T19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" t="s">
         <v>162</v>
       </c>
@@ -3668,37 +3884,46 @@
         <v>163</v>
       </c>
       <c r="C20" t="s">
+        <v>163</v>
+      </c>
+      <c r="D20" t="s">
+        <v>827</v>
+      </c>
+      <c r="E20" t="s">
+        <v>826</v>
+      </c>
+      <c r="F20" t="s">
         <v>164</v>
       </c>
-      <c r="D20" t="s">
+      <c r="G20" t="s">
         <v>166</v>
       </c>
-      <c r="E20" t="s">
+      <c r="H20" t="s">
         <v>167</v>
       </c>
-      <c r="F20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="I20" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" t="s">
         <v>168</v>
       </c>
-      <c r="H20" t="s">
+      <c r="K20" t="s">
         <v>169</v>
       </c>
-      <c r="L20" t="s">
+      <c r="O20" t="s">
         <v>12</v>
-      </c>
-      <c r="M20" t="s">
-        <v>165</v>
       </c>
       <c r="P20" t="s">
         <v>165</v>
       </c>
-      <c r="Q20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="S20" t="s">
+        <v>165</v>
+      </c>
+      <c r="T20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" t="s">
         <v>170</v>
       </c>
@@ -3706,37 +3931,46 @@
         <v>171</v>
       </c>
       <c r="C21" t="s">
+        <v>171</v>
+      </c>
+      <c r="D21" t="s">
+        <v>827</v>
+      </c>
+      <c r="E21" t="s">
+        <v>826</v>
+      </c>
+      <c r="F21" t="s">
         <v>172</v>
       </c>
-      <c r="D21" t="s">
+      <c r="G21" t="s">
         <v>175</v>
       </c>
-      <c r="E21" t="s">
+      <c r="H21" t="s">
         <v>176</v>
       </c>
-      <c r="F21" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="I21" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" t="s">
         <v>177</v>
       </c>
-      <c r="H21" t="s">
+      <c r="K21" t="s">
         <v>178</v>
       </c>
-      <c r="L21" t="s">
+      <c r="O21" t="s">
         <v>12</v>
       </c>
-      <c r="M21" t="s">
+      <c r="P21" t="s">
         <v>173</v>
       </c>
-      <c r="P21" t="s">
+      <c r="S21" t="s">
         <v>174</v>
       </c>
-      <c r="Q21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="T21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" t="s">
         <v>179</v>
       </c>
@@ -3744,37 +3978,46 @@
         <v>180</v>
       </c>
       <c r="C22" t="s">
+        <v>180</v>
+      </c>
+      <c r="D22" t="s">
+        <v>827</v>
+      </c>
+      <c r="E22" t="s">
+        <v>826</v>
+      </c>
+      <c r="F22" t="s">
         <v>181</v>
       </c>
-      <c r="D22" t="s">
+      <c r="G22" t="s">
         <v>183</v>
       </c>
-      <c r="E22" t="s">
+      <c r="H22" t="s">
         <v>184</v>
       </c>
-      <c r="F22" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="I22" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" t="s">
         <v>185</v>
       </c>
-      <c r="H22" t="s">
+      <c r="K22" t="s">
         <v>186</v>
       </c>
-      <c r="L22" t="s">
+      <c r="O22" t="s">
         <v>12</v>
-      </c>
-      <c r="M22" t="s">
-        <v>182</v>
       </c>
       <c r="P22" t="s">
         <v>182</v>
       </c>
-      <c r="Q22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="S22" t="s">
+        <v>182</v>
+      </c>
+      <c r="T22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" t="s">
         <v>187</v>
       </c>
@@ -3782,34 +4025,43 @@
         <v>188</v>
       </c>
       <c r="C23" t="s">
+        <v>188</v>
+      </c>
+      <c r="D23" t="s">
+        <v>827</v>
+      </c>
+      <c r="E23" t="s">
+        <v>826</v>
+      </c>
+      <c r="F23" t="s">
         <v>189</v>
       </c>
-      <c r="D23" t="s">
+      <c r="G23" t="s">
         <v>192</v>
       </c>
-      <c r="E23" t="s">
+      <c r="H23" t="s">
         <v>193</v>
       </c>
-      <c r="F23" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="I23" t="s">
+        <v>39</v>
+      </c>
+      <c r="J23" t="s">
         <v>64</v>
       </c>
-      <c r="H23" t="s">
+      <c r="K23" t="s">
         <v>194</v>
       </c>
-      <c r="M23" t="s">
+      <c r="P23" t="s">
         <v>190</v>
       </c>
-      <c r="P23" t="s">
+      <c r="S23" t="s">
         <v>191</v>
       </c>
-      <c r="Q23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="T23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" t="s">
         <v>195</v>
       </c>
@@ -3817,37 +4069,46 @@
         <v>196</v>
       </c>
       <c r="C24" t="s">
+        <v>196</v>
+      </c>
+      <c r="D24" t="s">
+        <v>827</v>
+      </c>
+      <c r="E24" t="s">
+        <v>826</v>
+      </c>
+      <c r="F24" t="s">
         <v>197</v>
       </c>
-      <c r="D24" t="s">
+      <c r="G24" t="s">
         <v>199</v>
       </c>
-      <c r="E24" t="s">
+      <c r="H24" t="s">
         <v>200</v>
       </c>
-      <c r="F24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="I24" t="s">
+        <v>39</v>
+      </c>
+      <c r="J24" t="s">
         <v>201</v>
       </c>
-      <c r="H24" t="s">
+      <c r="K24" t="s">
         <v>202</v>
       </c>
-      <c r="L24" t="s">
+      <c r="O24" t="s">
         <v>12</v>
-      </c>
-      <c r="M24" t="s">
-        <v>198</v>
       </c>
       <c r="P24" t="s">
         <v>198</v>
       </c>
-      <c r="Q24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="S24" t="s">
+        <v>198</v>
+      </c>
+      <c r="T24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" t="s">
         <v>203</v>
       </c>
@@ -3855,37 +4116,46 @@
         <v>204</v>
       </c>
       <c r="C25" t="s">
+        <v>204</v>
+      </c>
+      <c r="D25" t="s">
+        <v>827</v>
+      </c>
+      <c r="E25" t="s">
+        <v>826</v>
+      </c>
+      <c r="F25" t="s">
         <v>205</v>
       </c>
-      <c r="D25" t="s">
+      <c r="G25" t="s">
         <v>207</v>
       </c>
-      <c r="E25" t="s">
+      <c r="H25" t="s">
         <v>208</v>
       </c>
-      <c r="F25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="I25" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25" t="s">
         <v>209</v>
       </c>
-      <c r="H25" t="s">
+      <c r="K25" t="s">
         <v>210</v>
       </c>
-      <c r="L25" t="s">
+      <c r="O25" t="s">
         <v>12</v>
-      </c>
-      <c r="M25" t="s">
-        <v>206</v>
       </c>
       <c r="P25" t="s">
         <v>206</v>
       </c>
-      <c r="Q25" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
+      <c r="S25" t="s">
+        <v>206</v>
+      </c>
+      <c r="T25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" t="s">
         <v>211</v>
       </c>
@@ -3893,40 +4163,49 @@
         <v>212</v>
       </c>
       <c r="C26" t="s">
+        <v>212</v>
+      </c>
+      <c r="D26" t="s">
+        <v>827</v>
+      </c>
+      <c r="E26" t="s">
+        <v>826</v>
+      </c>
+      <c r="F26" t="s">
         <v>213</v>
       </c>
-      <c r="D26" t="s">
+      <c r="G26" t="s">
         <v>217</v>
       </c>
-      <c r="E26" t="s">
+      <c r="H26" t="s">
         <v>218</v>
       </c>
-      <c r="F26" t="s">
+      <c r="I26" t="s">
         <v>10</v>
       </c>
-      <c r="G26" t="s">
+      <c r="J26" t="s">
         <v>219</v>
       </c>
-      <c r="H26" t="s">
+      <c r="K26" t="s">
         <v>220</v>
       </c>
-      <c r="L26" t="s">
+      <c r="O26" t="s">
         <v>12</v>
       </c>
-      <c r="M26" t="s">
+      <c r="P26" t="s">
         <v>214</v>
       </c>
-      <c r="O26" t="s">
+      <c r="R26" t="s">
         <v>215</v>
       </c>
-      <c r="P26" t="s">
+      <c r="S26" t="s">
         <v>216</v>
       </c>
-      <c r="Q26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
+      <c r="T26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" t="s">
         <v>221</v>
       </c>
@@ -3934,31 +4213,40 @@
         <v>222</v>
       </c>
       <c r="C27" t="s">
+        <v>222</v>
+      </c>
+      <c r="D27" t="s">
+        <v>827</v>
+      </c>
+      <c r="E27" t="s">
+        <v>826</v>
+      </c>
+      <c r="F27" t="s">
         <v>223</v>
       </c>
-      <c r="D27" t="s">
+      <c r="G27" t="s">
         <v>225</v>
       </c>
-      <c r="E27" t="s">
+      <c r="H27" t="s">
         <v>226</v>
       </c>
-      <c r="F27" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="I27" t="s">
+        <v>39</v>
+      </c>
+      <c r="J27" t="s">
         <v>227</v>
       </c>
-      <c r="H27" t="s">
+      <c r="K27" t="s">
         <v>228</v>
       </c>
-      <c r="M27" t="s">
+      <c r="P27" t="s">
         <v>224</v>
       </c>
-      <c r="Q27" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="T27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28" t="s">
         <v>229</v>
       </c>
@@ -3966,34 +4254,43 @@
         <v>230</v>
       </c>
       <c r="C28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D28" t="s">
+        <v>827</v>
+      </c>
+      <c r="E28" t="s">
+        <v>826</v>
+      </c>
+      <c r="F28" t="s">
         <v>231</v>
       </c>
-      <c r="D28" t="s">
+      <c r="G28" t="s">
         <v>233</v>
       </c>
-      <c r="E28" t="s">
+      <c r="H28" t="s">
         <v>234</v>
       </c>
-      <c r="F28" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="I28" t="s">
+        <v>39</v>
+      </c>
+      <c r="J28" t="s">
         <v>235</v>
       </c>
-      <c r="H28" t="s">
+      <c r="K28" t="s">
         <v>236</v>
       </c>
-      <c r="L28" t="s">
+      <c r="O28" t="s">
         <v>12</v>
       </c>
-      <c r="M28" t="s">
+      <c r="P28" t="s">
         <v>232</v>
       </c>
-      <c r="Q28" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+      <c r="T28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" t="s">
         <v>237</v>
       </c>
@@ -4001,31 +4298,40 @@
         <v>238</v>
       </c>
       <c r="C29" t="s">
+        <v>238</v>
+      </c>
+      <c r="D29" t="s">
+        <v>827</v>
+      </c>
+      <c r="E29" t="s">
+        <v>826</v>
+      </c>
+      <c r="F29" t="s">
         <v>239</v>
       </c>
-      <c r="D29" t="s">
+      <c r="G29" t="s">
         <v>241</v>
       </c>
-      <c r="E29" t="s">
+      <c r="H29" t="s">
         <v>242</v>
       </c>
-      <c r="F29" t="s">
-        <v>39</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="I29" t="s">
+        <v>39</v>
+      </c>
+      <c r="J29" t="s">
         <v>243</v>
       </c>
-      <c r="H29" t="s">
+      <c r="K29" t="s">
         <v>49</v>
       </c>
-      <c r="M29" t="s">
+      <c r="P29" t="s">
         <v>240</v>
       </c>
-      <c r="Q29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+      <c r="T29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30" t="s">
         <v>244</v>
       </c>
@@ -4033,34 +4339,43 @@
         <v>245</v>
       </c>
       <c r="C30" t="s">
+        <v>245</v>
+      </c>
+      <c r="D30" t="s">
+        <v>827</v>
+      </c>
+      <c r="E30" t="s">
+        <v>826</v>
+      </c>
+      <c r="F30" t="s">
         <v>246</v>
       </c>
-      <c r="D30" t="s">
+      <c r="G30" t="s">
         <v>248</v>
       </c>
-      <c r="E30" t="s">
+      <c r="H30" t="s">
         <v>249</v>
       </c>
-      <c r="F30" t="s">
-        <v>39</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="I30" t="s">
+        <v>39</v>
+      </c>
+      <c r="J30" t="s">
         <v>250</v>
       </c>
-      <c r="H30" t="s">
+      <c r="K30" t="s">
         <v>251</v>
-      </c>
-      <c r="M30" t="s">
-        <v>247</v>
       </c>
       <c r="P30" t="s">
         <v>247</v>
       </c>
-      <c r="Q30" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
+      <c r="S30" t="s">
+        <v>247</v>
+      </c>
+      <c r="T30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
       <c r="A31" t="s">
         <v>252</v>
       </c>
@@ -4068,34 +4383,43 @@
         <v>253</v>
       </c>
       <c r="C31" t="s">
+        <v>253</v>
+      </c>
+      <c r="D31" t="s">
+        <v>827</v>
+      </c>
+      <c r="E31" t="s">
+        <v>826</v>
+      </c>
+      <c r="F31" t="s">
         <v>254</v>
       </c>
-      <c r="D31" t="s">
+      <c r="G31" t="s">
         <v>257</v>
       </c>
-      <c r="E31" t="s">
+      <c r="H31" t="s">
         <v>258</v>
       </c>
-      <c r="F31" t="s">
-        <v>39</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="I31" t="s">
+        <v>39</v>
+      </c>
+      <c r="J31" t="s">
         <v>259</v>
       </c>
-      <c r="H31" t="s">
+      <c r="K31" t="s">
         <v>260</v>
       </c>
-      <c r="M31" t="s">
+      <c r="P31" t="s">
         <v>255</v>
       </c>
-      <c r="P31" t="s">
+      <c r="S31" t="s">
         <v>256</v>
       </c>
-      <c r="Q31" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
+      <c r="T31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32" t="s">
         <v>261</v>
       </c>
@@ -4103,34 +4427,43 @@
         <v>262</v>
       </c>
       <c r="C32" t="s">
+        <v>262</v>
+      </c>
+      <c r="D32" t="s">
+        <v>827</v>
+      </c>
+      <c r="E32" t="s">
+        <v>826</v>
+      </c>
+      <c r="F32" t="s">
         <v>263</v>
       </c>
-      <c r="D32" t="s">
+      <c r="G32" t="s">
         <v>266</v>
       </c>
-      <c r="E32" t="s">
+      <c r="H32" t="s">
         <v>267</v>
       </c>
-      <c r="F32" t="s">
-        <v>39</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="I32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J32" t="s">
         <v>268</v>
       </c>
-      <c r="H32" t="s">
+      <c r="K32" t="s">
         <v>269</v>
       </c>
-      <c r="M32" t="s">
+      <c r="P32" t="s">
         <v>264</v>
       </c>
-      <c r="P32" t="s">
+      <c r="S32" t="s">
         <v>265</v>
       </c>
-      <c r="Q32" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
+      <c r="T32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33" t="s">
         <v>270</v>
       </c>
@@ -4138,37 +4471,46 @@
         <v>271</v>
       </c>
       <c r="C33" t="s">
+        <v>271</v>
+      </c>
+      <c r="D33" t="s">
+        <v>827</v>
+      </c>
+      <c r="E33" t="s">
+        <v>826</v>
+      </c>
+      <c r="F33" t="s">
         <v>272</v>
       </c>
-      <c r="D33" t="s">
+      <c r="G33" t="s">
         <v>275</v>
       </c>
-      <c r="E33" t="s">
+      <c r="H33" t="s">
         <v>276</v>
       </c>
-      <c r="F33" t="s">
-        <v>39</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="I33" t="s">
+        <v>39</v>
+      </c>
+      <c r="J33" t="s">
         <v>277</v>
       </c>
-      <c r="H33" t="s">
+      <c r="K33" t="s">
         <v>278</v>
       </c>
-      <c r="L33" t="s">
+      <c r="O33" t="s">
         <v>12</v>
       </c>
-      <c r="M33" t="s">
+      <c r="P33" t="s">
         <v>273</v>
       </c>
-      <c r="P33" t="s">
+      <c r="S33" t="s">
         <v>274</v>
       </c>
-      <c r="Q33" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
+      <c r="T33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
       <c r="A34" t="s">
         <v>279</v>
       </c>
@@ -4176,37 +4518,46 @@
         <v>280</v>
       </c>
       <c r="C34" t="s">
+        <v>280</v>
+      </c>
+      <c r="D34" t="s">
+        <v>827</v>
+      </c>
+      <c r="E34" t="s">
+        <v>826</v>
+      </c>
+      <c r="F34" t="s">
         <v>281</v>
       </c>
-      <c r="D34" t="s">
+      <c r="G34" t="s">
         <v>283</v>
       </c>
-      <c r="E34" t="s">
+      <c r="H34" t="s">
         <v>284</v>
       </c>
-      <c r="F34" t="s">
-        <v>39</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="I34" t="s">
+        <v>39</v>
+      </c>
+      <c r="J34" t="s">
         <v>285</v>
       </c>
-      <c r="H34" t="s">
+      <c r="K34" t="s">
         <v>286</v>
       </c>
-      <c r="L34" t="s">
+      <c r="O34" t="s">
         <v>12</v>
-      </c>
-      <c r="M34" t="s">
-        <v>282</v>
       </c>
       <c r="P34" t="s">
         <v>282</v>
       </c>
-      <c r="Q34" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
+      <c r="S34" t="s">
+        <v>282</v>
+      </c>
+      <c r="T34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
       <c r="A35" t="s">
         <v>287</v>
       </c>
@@ -4214,37 +4565,46 @@
         <v>288</v>
       </c>
       <c r="C35" t="s">
+        <v>288</v>
+      </c>
+      <c r="D35" t="s">
+        <v>827</v>
+      </c>
+      <c r="E35" t="s">
+        <v>826</v>
+      </c>
+      <c r="F35" t="s">
         <v>289</v>
       </c>
-      <c r="D35" t="s">
+      <c r="G35" t="s">
         <v>291</v>
       </c>
-      <c r="E35" t="s">
+      <c r="H35" t="s">
         <v>292</v>
       </c>
-      <c r="F35" t="s">
-        <v>39</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="I35" t="s">
+        <v>39</v>
+      </c>
+      <c r="J35" t="s">
         <v>177</v>
       </c>
-      <c r="H35" t="s">
+      <c r="K35" t="s">
         <v>293</v>
       </c>
-      <c r="L35" t="s">
+      <c r="O35" t="s">
         <v>12</v>
-      </c>
-      <c r="M35" t="s">
-        <v>290</v>
       </c>
       <c r="P35" t="s">
         <v>290</v>
       </c>
-      <c r="Q35" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
+      <c r="S35" t="s">
+        <v>290</v>
+      </c>
+      <c r="T35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
       <c r="A36" t="s">
         <v>294</v>
       </c>
@@ -4252,37 +4612,46 @@
         <v>295</v>
       </c>
       <c r="C36" t="s">
+        <v>295</v>
+      </c>
+      <c r="D36" t="s">
+        <v>827</v>
+      </c>
+      <c r="E36" t="s">
+        <v>826</v>
+      </c>
+      <c r="F36" t="s">
         <v>296</v>
       </c>
-      <c r="D36" t="s">
+      <c r="G36" t="s">
         <v>299</v>
       </c>
-      <c r="E36" t="s">
+      <c r="H36" t="s">
         <v>300</v>
       </c>
-      <c r="F36" t="s">
+      <c r="I36" t="s">
         <v>10</v>
       </c>
-      <c r="G36" t="s">
+      <c r="J36" t="s">
         <v>301</v>
       </c>
-      <c r="H36" t="s">
+      <c r="K36" t="s">
         <v>302</v>
-      </c>
-      <c r="M36" t="s">
-        <v>297</v>
-      </c>
-      <c r="O36" t="s">
-        <v>298</v>
       </c>
       <c r="P36" t="s">
         <v>297</v>
       </c>
-      <c r="Q36" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
+      <c r="R36" t="s">
+        <v>298</v>
+      </c>
+      <c r="S36" t="s">
+        <v>297</v>
+      </c>
+      <c r="T36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37" t="s">
         <v>303</v>
       </c>
@@ -4290,37 +4659,46 @@
         <v>304</v>
       </c>
       <c r="C37" t="s">
+        <v>304</v>
+      </c>
+      <c r="D37" t="s">
+        <v>827</v>
+      </c>
+      <c r="E37" t="s">
+        <v>826</v>
+      </c>
+      <c r="F37" t="s">
         <v>305</v>
       </c>
-      <c r="D37" t="s">
+      <c r="G37" t="s">
         <v>307</v>
       </c>
-      <c r="E37" t="s">
+      <c r="H37" t="s">
         <v>308</v>
       </c>
-      <c r="F37" t="s">
-        <v>39</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="I37" t="s">
+        <v>39</v>
+      </c>
+      <c r="J37" t="s">
         <v>309</v>
       </c>
-      <c r="H37" t="s">
+      <c r="K37" t="s">
         <v>310</v>
       </c>
-      <c r="L37" t="s">
+      <c r="O37" t="s">
         <v>12</v>
-      </c>
-      <c r="M37" t="s">
-        <v>306</v>
       </c>
       <c r="P37" t="s">
         <v>306</v>
       </c>
-      <c r="Q37" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
+      <c r="S37" t="s">
+        <v>306</v>
+      </c>
+      <c r="T37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38" t="s">
         <v>311</v>
       </c>
@@ -4328,34 +4706,43 @@
         <v>312</v>
       </c>
       <c r="C38" t="s">
+        <v>312</v>
+      </c>
+      <c r="D38" t="s">
+        <v>827</v>
+      </c>
+      <c r="E38" t="s">
+        <v>826</v>
+      </c>
+      <c r="F38" t="s">
         <v>313</v>
       </c>
-      <c r="D38" t="s">
+      <c r="G38" t="s">
         <v>316</v>
       </c>
-      <c r="E38" t="s">
+      <c r="H38" t="s">
         <v>317</v>
       </c>
-      <c r="F38" t="s">
-        <v>39</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="I38" t="s">
+        <v>39</v>
+      </c>
+      <c r="J38" t="s">
         <v>90</v>
       </c>
-      <c r="H38" t="s">
+      <c r="K38" t="s">
         <v>318</v>
       </c>
-      <c r="M38" t="s">
+      <c r="P38" t="s">
         <v>314</v>
       </c>
-      <c r="P38" t="s">
+      <c r="S38" t="s">
         <v>315</v>
       </c>
-      <c r="Q38" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
+      <c r="T38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
       <c r="A39" t="s">
         <v>319</v>
       </c>
@@ -4363,34 +4750,43 @@
         <v>320</v>
       </c>
       <c r="C39" t="s">
+        <v>320</v>
+      </c>
+      <c r="D39" t="s">
+        <v>827</v>
+      </c>
+      <c r="E39" t="s">
+        <v>826</v>
+      </c>
+      <c r="F39" t="s">
         <v>321</v>
       </c>
-      <c r="D39" t="s">
+      <c r="G39" t="s">
         <v>324</v>
       </c>
-      <c r="E39" t="s">
+      <c r="H39" t="s">
         <v>325</v>
       </c>
-      <c r="F39" t="s">
-        <v>39</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="I39" t="s">
+        <v>39</v>
+      </c>
+      <c r="J39" t="s">
         <v>56</v>
       </c>
-      <c r="H39" t="s">
+      <c r="K39" t="s">
         <v>326</v>
       </c>
-      <c r="M39" t="s">
+      <c r="P39" t="s">
         <v>322</v>
       </c>
-      <c r="P39" t="s">
+      <c r="S39" t="s">
         <v>323</v>
       </c>
-      <c r="Q39" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
+      <c r="T39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
       <c r="A40" t="s">
         <v>327</v>
       </c>
@@ -4398,37 +4794,46 @@
         <v>328</v>
       </c>
       <c r="C40" t="s">
+        <v>328</v>
+      </c>
+      <c r="D40" t="s">
+        <v>827</v>
+      </c>
+      <c r="E40" t="s">
+        <v>826</v>
+      </c>
+      <c r="F40" t="s">
         <v>329</v>
       </c>
-      <c r="D40" t="s">
+      <c r="G40" t="s">
         <v>332</v>
       </c>
-      <c r="E40" t="s">
+      <c r="H40" t="s">
         <v>333</v>
       </c>
-      <c r="F40" t="s">
-        <v>39</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="I40" t="s">
+        <v>39</v>
+      </c>
+      <c r="J40" t="s">
         <v>334</v>
       </c>
-      <c r="H40" t="s">
+      <c r="K40" t="s">
         <v>335</v>
       </c>
-      <c r="L40" t="s">
+      <c r="O40" t="s">
         <v>12</v>
       </c>
-      <c r="M40" t="s">
+      <c r="P40" t="s">
         <v>330</v>
       </c>
-      <c r="P40" t="s">
+      <c r="S40" t="s">
         <v>331</v>
       </c>
-      <c r="Q40" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
+      <c r="T40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
       <c r="A41" t="s">
         <v>336</v>
       </c>
@@ -4436,34 +4841,43 @@
         <v>337</v>
       </c>
       <c r="C41" t="s">
+        <v>337</v>
+      </c>
+      <c r="D41" t="s">
+        <v>827</v>
+      </c>
+      <c r="E41" t="s">
+        <v>826</v>
+      </c>
+      <c r="F41" t="s">
         <v>338</v>
       </c>
-      <c r="D41" t="s">
+      <c r="G41" t="s">
         <v>341</v>
       </c>
-      <c r="E41" t="s">
+      <c r="H41" t="s">
         <v>276</v>
       </c>
-      <c r="F41" t="s">
-        <v>39</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="I41" t="s">
+        <v>39</v>
+      </c>
+      <c r="J41" t="s">
         <v>277</v>
       </c>
-      <c r="H41" t="s">
+      <c r="K41" t="s">
         <v>342</v>
       </c>
-      <c r="M41" t="s">
+      <c r="P41" t="s">
         <v>339</v>
       </c>
-      <c r="P41" t="s">
+      <c r="S41" t="s">
         <v>340</v>
       </c>
-      <c r="Q41" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
+      <c r="T41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
       <c r="A42" t="s">
         <v>343</v>
       </c>
@@ -4471,34 +4885,43 @@
         <v>344</v>
       </c>
       <c r="C42" t="s">
+        <v>344</v>
+      </c>
+      <c r="D42" t="s">
+        <v>828</v>
+      </c>
+      <c r="E42" t="s">
+        <v>826</v>
+      </c>
+      <c r="F42" t="s">
         <v>345</v>
       </c>
-      <c r="D42" t="s">
+      <c r="G42" t="s">
         <v>348</v>
       </c>
-      <c r="E42" t="s">
+      <c r="H42" t="s">
         <v>349</v>
       </c>
-      <c r="F42" t="s">
-        <v>39</v>
-      </c>
-      <c r="G42" t="s">
+      <c r="I42" t="s">
+        <v>39</v>
+      </c>
+      <c r="J42" t="s">
         <v>350</v>
       </c>
-      <c r="H42" t="s">
+      <c r="K42" t="s">
         <v>351</v>
       </c>
-      <c r="M42" t="s">
+      <c r="P42" t="s">
         <v>346</v>
       </c>
-      <c r="P42" t="s">
+      <c r="S42" t="s">
         <v>347</v>
       </c>
-      <c r="Q42" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
+      <c r="T42" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
       <c r="A43" t="s">
         <v>352</v>
       </c>
@@ -4506,34 +4929,43 @@
         <v>353</v>
       </c>
       <c r="C43" t="s">
+        <v>353</v>
+      </c>
+      <c r="D43" t="s">
+        <v>827</v>
+      </c>
+      <c r="E43" t="s">
+        <v>826</v>
+      </c>
+      <c r="F43" t="s">
         <v>354</v>
       </c>
-      <c r="D43" t="s">
+      <c r="G43" t="s">
         <v>356</v>
       </c>
-      <c r="E43" t="s">
+      <c r="H43" t="s">
         <v>357</v>
       </c>
-      <c r="F43" t="s">
-        <v>39</v>
-      </c>
-      <c r="G43" t="s">
+      <c r="I43" t="s">
+        <v>39</v>
+      </c>
+      <c r="J43" t="s">
         <v>358</v>
       </c>
-      <c r="H43" t="s">
+      <c r="K43" t="s">
         <v>359</v>
       </c>
-      <c r="M43" t="s">
+      <c r="P43" t="s">
         <v>346</v>
       </c>
-      <c r="P43" t="s">
+      <c r="S43" t="s">
         <v>355</v>
       </c>
-      <c r="Q43" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
+      <c r="T43" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
       <c r="A44" t="s">
         <v>360</v>
       </c>
@@ -4541,43 +4973,52 @@
         <v>361</v>
       </c>
       <c r="C44" t="s">
+        <v>361</v>
+      </c>
+      <c r="D44" t="s">
+        <v>827</v>
+      </c>
+      <c r="E44" t="s">
+        <v>826</v>
+      </c>
+      <c r="F44" t="s">
         <v>362</v>
       </c>
-      <c r="D44" t="s">
+      <c r="G44" t="s">
         <v>364</v>
       </c>
-      <c r="E44" t="s">
+      <c r="H44" t="s">
         <v>365</v>
       </c>
-      <c r="F44" t="s">
-        <v>39</v>
-      </c>
-      <c r="G44" t="s">
+      <c r="I44" t="s">
+        <v>39</v>
+      </c>
+      <c r="J44" t="s">
         <v>366</v>
       </c>
-      <c r="H44" t="s">
+      <c r="K44" t="s">
         <v>367</v>
       </c>
-      <c r="I44" t="s">
+      <c r="L44" t="s">
         <v>23</v>
       </c>
-      <c r="L44" t="s">
+      <c r="O44" t="s">
         <v>12</v>
-      </c>
-      <c r="M44" t="s">
-        <v>363</v>
-      </c>
-      <c r="O44" t="s">
-        <v>23</v>
       </c>
       <c r="P44" t="s">
         <v>363</v>
       </c>
-      <c r="Q44" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
+      <c r="R44" t="s">
+        <v>23</v>
+      </c>
+      <c r="S44" t="s">
+        <v>363</v>
+      </c>
+      <c r="T44" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
       <c r="A45" t="s">
         <v>368</v>
       </c>
@@ -4585,34 +5026,43 @@
         <v>369</v>
       </c>
       <c r="C45" t="s">
+        <v>369</v>
+      </c>
+      <c r="D45" t="s">
+        <v>827</v>
+      </c>
+      <c r="E45" t="s">
+        <v>826</v>
+      </c>
+      <c r="F45" t="s">
         <v>370</v>
       </c>
-      <c r="D45" t="s">
+      <c r="G45" t="s">
         <v>372</v>
       </c>
-      <c r="E45" t="s">
+      <c r="H45" t="s">
         <v>373</v>
       </c>
-      <c r="F45" t="s">
-        <v>39</v>
-      </c>
-      <c r="G45" t="s">
+      <c r="I45" t="s">
+        <v>39</v>
+      </c>
+      <c r="J45" t="s">
         <v>374</v>
       </c>
-      <c r="H45" t="s">
+      <c r="K45" t="s">
         <v>375</v>
-      </c>
-      <c r="M45" t="s">
-        <v>371</v>
       </c>
       <c r="P45" t="s">
         <v>371</v>
       </c>
-      <c r="Q45" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
+      <c r="S45" t="s">
+        <v>371</v>
+      </c>
+      <c r="T45" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
       <c r="A46" t="s">
         <v>376</v>
       </c>
@@ -4620,37 +5070,46 @@
         <v>377</v>
       </c>
       <c r="C46" t="s">
+        <v>377</v>
+      </c>
+      <c r="D46" t="s">
+        <v>827</v>
+      </c>
+      <c r="E46" t="s">
+        <v>826</v>
+      </c>
+      <c r="F46" t="s">
         <v>378</v>
       </c>
-      <c r="D46" t="s">
+      <c r="G46" t="s">
         <v>382</v>
       </c>
-      <c r="E46" t="s">
+      <c r="H46" t="s">
         <v>383</v>
       </c>
-      <c r="F46" t="s">
+      <c r="I46" t="s">
         <v>10</v>
       </c>
-      <c r="G46" t="s">
+      <c r="J46" t="s">
         <v>384</v>
       </c>
-      <c r="H46" t="s">
+      <c r="K46" t="s">
         <v>385</v>
       </c>
-      <c r="M46" t="s">
+      <c r="P46" t="s">
         <v>379</v>
       </c>
-      <c r="O46" t="s">
+      <c r="R46" t="s">
         <v>380</v>
       </c>
-      <c r="P46" t="s">
+      <c r="S46" t="s">
         <v>381</v>
       </c>
-      <c r="Q46" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
+      <c r="T46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20">
       <c r="A47" t="s">
         <v>386</v>
       </c>
@@ -4658,34 +5117,43 @@
         <v>387</v>
       </c>
       <c r="C47" t="s">
+        <v>387</v>
+      </c>
+      <c r="D47" t="s">
+        <v>827</v>
+      </c>
+      <c r="E47" t="s">
+        <v>826</v>
+      </c>
+      <c r="F47" t="s">
         <v>388</v>
       </c>
-      <c r="D47" t="s">
+      <c r="G47" t="s">
         <v>390</v>
       </c>
-      <c r="E47" t="s">
+      <c r="H47" t="s">
         <v>391</v>
       </c>
-      <c r="F47" t="s">
-        <v>39</v>
-      </c>
-      <c r="G47" t="s">
+      <c r="I47" t="s">
+        <v>39</v>
+      </c>
+      <c r="J47" t="s">
         <v>90</v>
       </c>
-      <c r="H47" t="s">
+      <c r="K47" t="s">
         <v>392</v>
-      </c>
-      <c r="M47" t="s">
-        <v>389</v>
       </c>
       <c r="P47" t="s">
         <v>389</v>
       </c>
-      <c r="Q47" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
+      <c r="S47" t="s">
+        <v>389</v>
+      </c>
+      <c r="T47" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20">
       <c r="A48" t="s">
         <v>393</v>
       </c>
@@ -4693,34 +5161,43 @@
         <v>394</v>
       </c>
       <c r="C48" t="s">
+        <v>394</v>
+      </c>
+      <c r="D48" t="s">
+        <v>827</v>
+      </c>
+      <c r="E48" t="s">
+        <v>826</v>
+      </c>
+      <c r="F48" t="s">
         <v>395</v>
       </c>
-      <c r="D48" t="s">
+      <c r="G48" t="s">
         <v>398</v>
       </c>
-      <c r="E48" t="s">
+      <c r="H48" t="s">
         <v>399</v>
       </c>
-      <c r="F48" t="s">
-        <v>39</v>
-      </c>
-      <c r="G48" t="s">
+      <c r="I48" t="s">
+        <v>39</v>
+      </c>
+      <c r="J48" t="s">
         <v>366</v>
       </c>
-      <c r="H48" t="s">
+      <c r="K48" t="s">
         <v>400</v>
       </c>
-      <c r="M48" t="s">
+      <c r="P48" t="s">
         <v>396</v>
       </c>
-      <c r="P48" t="s">
+      <c r="S48" t="s">
         <v>397</v>
       </c>
-      <c r="Q48" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17">
+      <c r="T48" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20">
       <c r="A49" t="s">
         <v>401</v>
       </c>
@@ -4728,34 +5205,43 @@
         <v>402</v>
       </c>
       <c r="C49" t="s">
+        <v>402</v>
+      </c>
+      <c r="D49" t="s">
+        <v>827</v>
+      </c>
+      <c r="E49" t="s">
+        <v>826</v>
+      </c>
+      <c r="F49" t="s">
         <v>403</v>
       </c>
-      <c r="D49" t="s">
+      <c r="G49" t="s">
         <v>405</v>
       </c>
-      <c r="E49" t="s">
+      <c r="H49" t="s">
         <v>406</v>
       </c>
-      <c r="F49" t="s">
-        <v>39</v>
-      </c>
-      <c r="G49" t="s">
+      <c r="I49" t="s">
+        <v>39</v>
+      </c>
+      <c r="J49" t="s">
         <v>209</v>
       </c>
-      <c r="H49" t="s">
+      <c r="K49" t="s">
         <v>407</v>
-      </c>
-      <c r="M49" t="s">
-        <v>404</v>
       </c>
       <c r="P49" t="s">
         <v>404</v>
       </c>
-      <c r="Q49" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17">
+      <c r="S49" t="s">
+        <v>404</v>
+      </c>
+      <c r="T49" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20">
       <c r="A50" t="s">
         <v>408</v>
       </c>
@@ -4763,34 +5249,43 @@
         <v>409</v>
       </c>
       <c r="C50" t="s">
+        <v>409</v>
+      </c>
+      <c r="D50" t="s">
+        <v>827</v>
+      </c>
+      <c r="E50" t="s">
+        <v>826</v>
+      </c>
+      <c r="F50" t="s">
         <v>410</v>
       </c>
-      <c r="D50" t="s">
+      <c r="G50" t="s">
         <v>412</v>
       </c>
-      <c r="E50" t="s">
+      <c r="H50" t="s">
         <v>413</v>
       </c>
-      <c r="F50" t="s">
-        <v>39</v>
-      </c>
-      <c r="G50" t="s">
+      <c r="I50" t="s">
+        <v>39</v>
+      </c>
+      <c r="J50" t="s">
         <v>414</v>
       </c>
-      <c r="H50" t="s">
+      <c r="K50" t="s">
         <v>415</v>
       </c>
-      <c r="L50" t="s">
+      <c r="O50" t="s">
         <v>12</v>
       </c>
-      <c r="M50" t="s">
+      <c r="P50" t="s">
         <v>411</v>
       </c>
-      <c r="Q50" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17">
+      <c r="T50" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20">
       <c r="A51" t="s">
         <v>416</v>
       </c>
@@ -4798,31 +5293,40 @@
         <v>417</v>
       </c>
       <c r="C51" t="s">
+        <v>417</v>
+      </c>
+      <c r="D51" t="s">
+        <v>827</v>
+      </c>
+      <c r="E51" t="s">
+        <v>826</v>
+      </c>
+      <c r="F51" t="s">
         <v>418</v>
       </c>
-      <c r="D51" t="s">
+      <c r="G51" t="s">
         <v>420</v>
       </c>
-      <c r="E51" t="s">
+      <c r="H51" t="s">
         <v>159</v>
       </c>
-      <c r="F51" t="s">
-        <v>39</v>
-      </c>
-      <c r="G51" t="s">
+      <c r="I51" t="s">
+        <v>39</v>
+      </c>
+      <c r="J51" t="s">
         <v>414</v>
       </c>
-      <c r="H51" t="s">
+      <c r="K51" t="s">
         <v>421</v>
       </c>
-      <c r="M51" t="s">
+      <c r="P51" t="s">
         <v>419</v>
       </c>
-      <c r="Q51" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17">
+      <c r="T51" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20">
       <c r="A52" t="s">
         <v>422</v>
       </c>
@@ -4830,34 +5334,43 @@
         <v>423</v>
       </c>
       <c r="C52" t="s">
+        <v>423</v>
+      </c>
+      <c r="D52" t="s">
+        <v>827</v>
+      </c>
+      <c r="E52" t="s">
+        <v>826</v>
+      </c>
+      <c r="F52" t="s">
         <v>424</v>
       </c>
-      <c r="D52" t="s">
+      <c r="G52" t="s">
         <v>427</v>
       </c>
-      <c r="E52" t="s">
+      <c r="H52" t="s">
         <v>428</v>
       </c>
-      <c r="F52" t="s">
-        <v>39</v>
-      </c>
-      <c r="G52" t="s">
+      <c r="I52" t="s">
+        <v>39</v>
+      </c>
+      <c r="J52" t="s">
         <v>429</v>
       </c>
-      <c r="H52" t="s">
+      <c r="K52" t="s">
         <v>430</v>
       </c>
-      <c r="M52" t="s">
+      <c r="P52" t="s">
         <v>425</v>
       </c>
-      <c r="P52" t="s">
+      <c r="S52" t="s">
         <v>426</v>
       </c>
-      <c r="Q52" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17">
+      <c r="T52" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20">
       <c r="A53" t="s">
         <v>431</v>
       </c>
@@ -4865,37 +5378,46 @@
         <v>432</v>
       </c>
       <c r="C53" t="s">
+        <v>432</v>
+      </c>
+      <c r="D53" t="s">
+        <v>827</v>
+      </c>
+      <c r="E53" t="s">
+        <v>826</v>
+      </c>
+      <c r="F53" t="s">
         <v>433</v>
       </c>
-      <c r="D53" t="s">
+      <c r="G53" t="s">
         <v>436</v>
       </c>
-      <c r="E53" t="s">
+      <c r="H53" t="s">
         <v>437</v>
       </c>
-      <c r="F53" t="s">
+      <c r="I53" t="s">
         <v>10</v>
       </c>
-      <c r="G53" t="s">
+      <c r="J53" t="s">
         <v>438</v>
       </c>
-      <c r="H53" t="s">
+      <c r="K53" t="s">
         <v>439</v>
-      </c>
-      <c r="M53" t="s">
-        <v>434</v>
-      </c>
-      <c r="O53" t="s">
-        <v>435</v>
       </c>
       <c r="P53" t="s">
         <v>434</v>
       </c>
-      <c r="Q53" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17">
+      <c r="R53" t="s">
+        <v>435</v>
+      </c>
+      <c r="S53" t="s">
+        <v>434</v>
+      </c>
+      <c r="T53" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20">
       <c r="A54" t="s">
         <v>440</v>
       </c>
@@ -4903,37 +5425,46 @@
         <v>441</v>
       </c>
       <c r="C54" t="s">
+        <v>441</v>
+      </c>
+      <c r="D54" t="s">
+        <v>827</v>
+      </c>
+      <c r="E54" t="s">
+        <v>826</v>
+      </c>
+      <c r="F54" t="s">
         <v>442</v>
       </c>
-      <c r="D54" t="s">
+      <c r="G54" t="s">
         <v>445</v>
       </c>
-      <c r="E54" t="s">
+      <c r="H54" t="s">
         <v>446</v>
       </c>
-      <c r="F54" t="s">
-        <v>39</v>
-      </c>
-      <c r="G54" t="s">
+      <c r="I54" t="s">
+        <v>39</v>
+      </c>
+      <c r="J54" t="s">
         <v>447</v>
       </c>
-      <c r="H54" t="s">
+      <c r="K54" t="s">
         <v>448</v>
       </c>
-      <c r="L54" t="s">
+      <c r="O54" t="s">
         <v>12</v>
       </c>
-      <c r="M54" t="s">
+      <c r="P54" t="s">
         <v>443</v>
       </c>
-      <c r="P54" t="s">
+      <c r="S54" t="s">
         <v>444</v>
       </c>
-      <c r="Q54" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17">
+      <c r="T54" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20">
       <c r="A55" t="s">
         <v>449</v>
       </c>
@@ -4941,31 +5472,40 @@
         <v>450</v>
       </c>
       <c r="C55" t="s">
+        <v>450</v>
+      </c>
+      <c r="D55" t="s">
+        <v>827</v>
+      </c>
+      <c r="E55" t="s">
+        <v>826</v>
+      </c>
+      <c r="F55" t="s">
         <v>451</v>
       </c>
-      <c r="D55" t="s">
+      <c r="G55" t="s">
         <v>453</v>
       </c>
-      <c r="E55" t="s">
+      <c r="H55" t="s">
         <v>454</v>
       </c>
-      <c r="F55" t="s">
-        <v>39</v>
-      </c>
-      <c r="G55" t="s">
+      <c r="I55" t="s">
+        <v>39</v>
+      </c>
+      <c r="J55" t="s">
         <v>455</v>
       </c>
-      <c r="H55" t="s">
+      <c r="K55" t="s">
         <v>456</v>
       </c>
-      <c r="M55" t="s">
+      <c r="P55" t="s">
         <v>452</v>
       </c>
-      <c r="Q55" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17">
+      <c r="T55" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20">
       <c r="A56" t="s">
         <v>457</v>
       </c>
@@ -4973,37 +5513,46 @@
         <v>458</v>
       </c>
       <c r="C56" t="s">
+        <v>458</v>
+      </c>
+      <c r="D56" t="s">
+        <v>827</v>
+      </c>
+      <c r="E56" t="s">
+        <v>826</v>
+      </c>
+      <c r="F56" t="s">
         <v>459</v>
       </c>
-      <c r="D56" t="s">
+      <c r="G56" t="s">
         <v>462</v>
       </c>
-      <c r="E56" t="s">
+      <c r="H56" t="s">
         <v>463</v>
       </c>
-      <c r="F56" t="s">
-        <v>39</v>
-      </c>
-      <c r="G56" t="s">
+      <c r="I56" t="s">
+        <v>39</v>
+      </c>
+      <c r="J56" t="s">
         <v>414</v>
       </c>
-      <c r="H56" t="s">
+      <c r="K56" t="s">
         <v>464</v>
       </c>
-      <c r="L56" t="s">
+      <c r="O56" t="s">
         <v>12</v>
       </c>
-      <c r="M56" t="s">
+      <c r="P56" t="s">
         <v>460</v>
       </c>
-      <c r="P56" t="s">
+      <c r="S56" t="s">
         <v>461</v>
       </c>
-      <c r="Q56" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17">
+      <c r="T56" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20">
       <c r="A57" t="s">
         <v>465</v>
       </c>
@@ -5011,34 +5560,43 @@
         <v>466</v>
       </c>
       <c r="C57" t="s">
+        <v>466</v>
+      </c>
+      <c r="D57" t="s">
+        <v>827</v>
+      </c>
+      <c r="E57" t="s">
+        <v>826</v>
+      </c>
+      <c r="F57" t="s">
         <v>467</v>
       </c>
-      <c r="D57" t="s">
+      <c r="G57" t="s">
         <v>470</v>
       </c>
-      <c r="E57" t="s">
+      <c r="H57" t="s">
         <v>159</v>
       </c>
-      <c r="F57" t="s">
-        <v>39</v>
-      </c>
-      <c r="G57" t="s">
+      <c r="I57" t="s">
+        <v>39</v>
+      </c>
+      <c r="J57" t="s">
         <v>160</v>
       </c>
-      <c r="H57" t="s">
+      <c r="K57" t="s">
         <v>471</v>
       </c>
-      <c r="M57" t="s">
+      <c r="P57" t="s">
         <v>468</v>
       </c>
-      <c r="P57" t="s">
+      <c r="S57" t="s">
         <v>469</v>
       </c>
-      <c r="Q57" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17">
+      <c r="T57" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20">
       <c r="A58" t="s">
         <v>472</v>
       </c>
@@ -5046,34 +5604,43 @@
         <v>473</v>
       </c>
       <c r="C58" t="s">
+        <v>473</v>
+      </c>
+      <c r="D58" t="s">
+        <v>827</v>
+      </c>
+      <c r="E58" t="s">
+        <v>826</v>
+      </c>
+      <c r="F58" t="s">
         <v>474</v>
       </c>
-      <c r="D58" t="s">
+      <c r="G58" t="s">
         <v>476</v>
       </c>
-      <c r="E58" t="s">
+      <c r="H58" t="s">
         <v>477</v>
       </c>
-      <c r="F58" t="s">
-        <v>39</v>
-      </c>
-      <c r="G58" t="s">
+      <c r="I58" t="s">
+        <v>39</v>
+      </c>
+      <c r="J58" t="s">
         <v>478</v>
       </c>
-      <c r="H58" t="s">
+      <c r="K58" t="s">
         <v>479</v>
-      </c>
-      <c r="M58" t="s">
-        <v>475</v>
       </c>
       <c r="P58" t="s">
         <v>475</v>
       </c>
-      <c r="Q58" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17">
+      <c r="S58" t="s">
+        <v>475</v>
+      </c>
+      <c r="T58" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20">
       <c r="A59" t="s">
         <v>480</v>
       </c>
@@ -5081,34 +5648,43 @@
         <v>481</v>
       </c>
       <c r="C59" t="s">
+        <v>481</v>
+      </c>
+      <c r="D59" t="s">
+        <v>827</v>
+      </c>
+      <c r="E59" t="s">
+        <v>826</v>
+      </c>
+      <c r="F59" t="s">
         <v>482</v>
       </c>
-      <c r="D59" t="s">
+      <c r="G59" t="s">
         <v>485</v>
       </c>
-      <c r="E59" t="s">
+      <c r="H59" t="s">
         <v>486</v>
       </c>
-      <c r="F59" t="s">
-        <v>39</v>
-      </c>
-      <c r="G59" t="s">
+      <c r="I59" t="s">
+        <v>39</v>
+      </c>
+      <c r="J59" t="s">
         <v>277</v>
       </c>
-      <c r="H59" t="s">
+      <c r="K59" t="s">
         <v>487</v>
       </c>
-      <c r="M59" t="s">
+      <c r="P59" t="s">
         <v>483</v>
       </c>
-      <c r="P59" t="s">
+      <c r="S59" t="s">
         <v>484</v>
       </c>
-      <c r="Q59" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17">
+      <c r="T59" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20">
       <c r="A60" t="s">
         <v>488</v>
       </c>
@@ -5116,34 +5692,43 @@
         <v>489</v>
       </c>
       <c r="C60" t="s">
+        <v>489</v>
+      </c>
+      <c r="D60" t="s">
+        <v>827</v>
+      </c>
+      <c r="E60" t="s">
+        <v>826</v>
+      </c>
+      <c r="F60" t="s">
         <v>490</v>
       </c>
-      <c r="D60" t="s">
+      <c r="G60" t="s">
         <v>492</v>
       </c>
-      <c r="E60" t="s">
+      <c r="H60" t="s">
         <v>493</v>
       </c>
-      <c r="F60" t="s">
-        <v>39</v>
-      </c>
-      <c r="G60" t="s">
+      <c r="I60" t="s">
+        <v>39</v>
+      </c>
+      <c r="J60" t="s">
         <v>277</v>
       </c>
-      <c r="H60" t="s">
+      <c r="K60" t="s">
         <v>494</v>
-      </c>
-      <c r="M60" t="s">
-        <v>491</v>
       </c>
       <c r="P60" t="s">
         <v>491</v>
       </c>
-      <c r="Q60" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17">
+      <c r="S60" t="s">
+        <v>491</v>
+      </c>
+      <c r="T60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20">
       <c r="A61" t="s">
         <v>495</v>
       </c>
@@ -5151,34 +5736,43 @@
         <v>496</v>
       </c>
       <c r="C61" t="s">
+        <v>496</v>
+      </c>
+      <c r="D61" t="s">
+        <v>827</v>
+      </c>
+      <c r="E61" t="s">
+        <v>826</v>
+      </c>
+      <c r="F61" t="s">
         <v>497</v>
       </c>
-      <c r="D61" t="s">
+      <c r="G61" t="s">
         <v>499</v>
       </c>
-      <c r="E61" t="s">
+      <c r="H61" t="s">
         <v>159</v>
       </c>
-      <c r="F61" t="s">
-        <v>39</v>
-      </c>
-      <c r="G61" t="s">
+      <c r="I61" t="s">
+        <v>39</v>
+      </c>
+      <c r="J61" t="s">
         <v>160</v>
       </c>
-      <c r="H61" t="s">
+      <c r="K61" t="s">
         <v>500</v>
-      </c>
-      <c r="M61" t="s">
-        <v>498</v>
       </c>
       <c r="P61" t="s">
         <v>498</v>
       </c>
-      <c r="Q61" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17">
+      <c r="S61" t="s">
+        <v>498</v>
+      </c>
+      <c r="T61" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20">
       <c r="A62" t="s">
         <v>501</v>
       </c>
@@ -5186,37 +5780,46 @@
         <v>502</v>
       </c>
       <c r="C62" t="s">
+        <v>502</v>
+      </c>
+      <c r="D62" t="s">
+        <v>827</v>
+      </c>
+      <c r="E62" t="s">
+        <v>826</v>
+      </c>
+      <c r="F62" t="s">
         <v>503</v>
       </c>
-      <c r="D62" t="s">
+      <c r="G62" t="s">
         <v>506</v>
       </c>
-      <c r="E62" t="s">
+      <c r="H62" t="s">
         <v>507</v>
       </c>
-      <c r="F62" t="s">
-        <v>39</v>
-      </c>
-      <c r="G62" t="s">
+      <c r="I62" t="s">
+        <v>39</v>
+      </c>
+      <c r="J62" t="s">
         <v>508</v>
       </c>
-      <c r="H62" t="s">
+      <c r="K62" t="s">
         <v>509</v>
       </c>
-      <c r="L62" t="s">
+      <c r="O62" t="s">
         <v>12</v>
       </c>
-      <c r="M62" t="s">
+      <c r="P62" t="s">
         <v>504</v>
       </c>
-      <c r="P62" t="s">
+      <c r="S62" t="s">
         <v>505</v>
       </c>
-      <c r="Q62" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17">
+      <c r="T62" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20">
       <c r="A63" t="s">
         <v>510</v>
       </c>
@@ -5224,34 +5827,43 @@
         <v>511</v>
       </c>
       <c r="C63" t="s">
+        <v>511</v>
+      </c>
+      <c r="D63" t="s">
+        <v>827</v>
+      </c>
+      <c r="E63" t="s">
+        <v>826</v>
+      </c>
+      <c r="F63" t="s">
         <v>512</v>
       </c>
-      <c r="D63" t="s">
+      <c r="G63" t="s">
         <v>514</v>
       </c>
-      <c r="E63" t="s">
+      <c r="H63" t="s">
         <v>515</v>
       </c>
-      <c r="F63" t="s">
-        <v>39</v>
-      </c>
-      <c r="G63" t="s">
+      <c r="I63" t="s">
+        <v>39</v>
+      </c>
+      <c r="J63" t="s">
         <v>516</v>
       </c>
-      <c r="H63" t="s">
+      <c r="K63" t="s">
         <v>517</v>
-      </c>
-      <c r="M63" t="s">
-        <v>513</v>
       </c>
       <c r="P63" t="s">
         <v>513</v>
       </c>
-      <c r="Q63" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17">
+      <c r="S63" t="s">
+        <v>513</v>
+      </c>
+      <c r="T63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20">
       <c r="A64" t="s">
         <v>518</v>
       </c>
@@ -5259,37 +5871,46 @@
         <v>519</v>
       </c>
       <c r="C64" t="s">
+        <v>519</v>
+      </c>
+      <c r="D64" t="s">
+        <v>827</v>
+      </c>
+      <c r="E64" t="s">
+        <v>826</v>
+      </c>
+      <c r="F64" t="s">
         <v>520</v>
       </c>
-      <c r="D64" t="s">
+      <c r="G64" t="s">
         <v>523</v>
       </c>
-      <c r="E64" t="s">
+      <c r="H64" t="s">
         <v>524</v>
       </c>
-      <c r="F64" t="s">
+      <c r="I64" t="s">
         <v>10</v>
       </c>
-      <c r="G64" t="s">
+      <c r="J64" t="s">
         <v>525</v>
       </c>
-      <c r="H64" t="s">
+      <c r="K64" t="s">
         <v>526</v>
-      </c>
-      <c r="M64" t="s">
-        <v>521</v>
-      </c>
-      <c r="O64" t="s">
-        <v>522</v>
       </c>
       <c r="P64" t="s">
         <v>521</v>
       </c>
-      <c r="Q64" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17">
+      <c r="R64" t="s">
+        <v>522</v>
+      </c>
+      <c r="S64" t="s">
+        <v>521</v>
+      </c>
+      <c r="T64" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20">
       <c r="A65" t="s">
         <v>527</v>
       </c>
@@ -5297,34 +5918,43 @@
         <v>528</v>
       </c>
       <c r="C65" t="s">
+        <v>528</v>
+      </c>
+      <c r="D65" t="s">
+        <v>827</v>
+      </c>
+      <c r="E65" t="s">
+        <v>826</v>
+      </c>
+      <c r="F65" t="s">
         <v>529</v>
       </c>
-      <c r="D65" t="s">
+      <c r="G65" t="s">
         <v>531</v>
       </c>
-      <c r="E65" t="s">
+      <c r="H65" t="s">
         <v>132</v>
       </c>
-      <c r="F65" t="s">
-        <v>39</v>
-      </c>
-      <c r="G65" t="s">
+      <c r="I65" t="s">
+        <v>39</v>
+      </c>
+      <c r="J65" t="s">
         <v>133</v>
       </c>
-      <c r="H65" t="s">
+      <c r="K65" t="s">
         <v>532</v>
-      </c>
-      <c r="M65" t="s">
-        <v>530</v>
       </c>
       <c r="P65" t="s">
         <v>530</v>
       </c>
-      <c r="Q65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17">
+      <c r="S65" t="s">
+        <v>530</v>
+      </c>
+      <c r="T65" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20">
       <c r="A66" t="s">
         <v>533</v>
       </c>
@@ -5332,37 +5962,46 @@
         <v>534</v>
       </c>
       <c r="C66" t="s">
+        <v>534</v>
+      </c>
+      <c r="D66" t="s">
+        <v>827</v>
+      </c>
+      <c r="E66" t="s">
+        <v>826</v>
+      </c>
+      <c r="F66" t="s">
         <v>535</v>
       </c>
-      <c r="D66" t="s">
+      <c r="G66" t="s">
         <v>538</v>
       </c>
-      <c r="E66" t="s">
+      <c r="H66" t="s">
         <v>176</v>
       </c>
-      <c r="F66" t="s">
-        <v>39</v>
-      </c>
-      <c r="G66" t="s">
+      <c r="I66" t="s">
+        <v>39</v>
+      </c>
+      <c r="J66" t="s">
         <v>177</v>
       </c>
-      <c r="H66" t="s">
+      <c r="K66" t="s">
         <v>539</v>
       </c>
-      <c r="L66" t="s">
+      <c r="O66" t="s">
         <v>12</v>
       </c>
-      <c r="M66" t="s">
+      <c r="P66" t="s">
         <v>536</v>
       </c>
-      <c r="P66" t="s">
+      <c r="S66" t="s">
         <v>537</v>
       </c>
-      <c r="Q66" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17">
+      <c r="T66" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20">
       <c r="A67" t="s">
         <v>540</v>
       </c>
@@ -5370,34 +6009,43 @@
         <v>541</v>
       </c>
       <c r="C67" t="s">
+        <v>541</v>
+      </c>
+      <c r="D67" t="s">
+        <v>827</v>
+      </c>
+      <c r="E67" t="s">
+        <v>826</v>
+      </c>
+      <c r="F67" t="s">
         <v>542</v>
       </c>
-      <c r="D67" t="s">
+      <c r="G67" t="s">
         <v>544</v>
       </c>
-      <c r="E67" t="s">
+      <c r="H67" t="s">
         <v>545</v>
       </c>
-      <c r="F67" t="s">
-        <v>39</v>
-      </c>
-      <c r="G67" t="s">
+      <c r="I67" t="s">
+        <v>39</v>
+      </c>
+      <c r="J67" t="s">
         <v>90</v>
       </c>
-      <c r="H67" t="s">
+      <c r="K67" t="s">
         <v>546</v>
-      </c>
-      <c r="M67" t="s">
-        <v>543</v>
       </c>
       <c r="P67" t="s">
         <v>543</v>
       </c>
-      <c r="Q67" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17">
+      <c r="S67" t="s">
+        <v>543</v>
+      </c>
+      <c r="T67" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20">
       <c r="A68" t="s">
         <v>547</v>
       </c>
@@ -5405,34 +6053,43 @@
         <v>548</v>
       </c>
       <c r="C68" t="s">
+        <v>548</v>
+      </c>
+      <c r="D68" t="s">
+        <v>827</v>
+      </c>
+      <c r="E68" t="s">
+        <v>826</v>
+      </c>
+      <c r="F68" t="s">
         <v>549</v>
       </c>
-      <c r="D68" t="s">
+      <c r="G68" t="s">
         <v>551</v>
       </c>
-      <c r="E68" t="s">
+      <c r="H68" t="s">
         <v>552</v>
       </c>
-      <c r="F68" t="s">
-        <v>39</v>
-      </c>
-      <c r="G68" t="s">
+      <c r="I68" t="s">
+        <v>39</v>
+      </c>
+      <c r="J68" t="s">
         <v>478</v>
       </c>
-      <c r="H68" t="s">
+      <c r="K68" t="s">
         <v>553</v>
-      </c>
-      <c r="M68" t="s">
-        <v>550</v>
       </c>
       <c r="P68" t="s">
         <v>550</v>
       </c>
-      <c r="Q68" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17">
+      <c r="S68" t="s">
+        <v>550</v>
+      </c>
+      <c r="T68" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20">
       <c r="A69" t="s">
         <v>554</v>
       </c>
@@ -5440,37 +6097,46 @@
         <v>555</v>
       </c>
       <c r="C69" t="s">
+        <v>555</v>
+      </c>
+      <c r="D69" t="s">
+        <v>827</v>
+      </c>
+      <c r="E69" t="s">
+        <v>826</v>
+      </c>
+      <c r="F69" t="s">
         <v>556</v>
       </c>
-      <c r="D69" t="s">
+      <c r="G69" t="s">
         <v>559</v>
       </c>
-      <c r="E69" t="s">
+      <c r="H69" t="s">
         <v>560</v>
       </c>
-      <c r="F69" t="s">
-        <v>39</v>
-      </c>
-      <c r="G69" t="s">
+      <c r="I69" t="s">
+        <v>39</v>
+      </c>
+      <c r="J69" t="s">
         <v>561</v>
       </c>
-      <c r="H69" t="s">
+      <c r="K69" t="s">
         <v>562</v>
       </c>
-      <c r="L69" t="s">
+      <c r="O69" t="s">
         <v>12</v>
       </c>
-      <c r="M69" t="s">
+      <c r="P69" t="s">
         <v>557</v>
       </c>
-      <c r="P69" t="s">
+      <c r="S69" t="s">
         <v>558</v>
       </c>
-      <c r="Q69" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17">
+      <c r="T69" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20">
       <c r="A70" t="s">
         <v>563</v>
       </c>
@@ -5478,37 +6144,46 @@
         <v>564</v>
       </c>
       <c r="C70" t="s">
+        <v>564</v>
+      </c>
+      <c r="D70" t="s">
+        <v>827</v>
+      </c>
+      <c r="E70" t="s">
+        <v>826</v>
+      </c>
+      <c r="F70" t="s">
         <v>565</v>
       </c>
-      <c r="D70" t="s">
+      <c r="G70" t="s">
         <v>567</v>
       </c>
-      <c r="E70" t="s">
+      <c r="H70" t="s">
         <v>568</v>
       </c>
-      <c r="F70" t="s">
-        <v>39</v>
-      </c>
-      <c r="G70" t="s">
+      <c r="I70" t="s">
+        <v>39</v>
+      </c>
+      <c r="J70" t="s">
         <v>569</v>
       </c>
-      <c r="H70" t="s">
+      <c r="K70" t="s">
         <v>570</v>
       </c>
-      <c r="L70" t="s">
+      <c r="O70" t="s">
         <v>12</v>
-      </c>
-      <c r="M70" t="s">
-        <v>566</v>
       </c>
       <c r="P70" t="s">
         <v>566</v>
       </c>
-      <c r="Q70" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17">
+      <c r="S70" t="s">
+        <v>566</v>
+      </c>
+      <c r="T70" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20">
       <c r="A71" t="s">
         <v>571</v>
       </c>
@@ -5516,37 +6191,46 @@
         <v>572</v>
       </c>
       <c r="C71" t="s">
+        <v>572</v>
+      </c>
+      <c r="D71" t="s">
+        <v>827</v>
+      </c>
+      <c r="E71" t="s">
+        <v>826</v>
+      </c>
+      <c r="F71" t="s">
         <v>573</v>
       </c>
-      <c r="D71" t="s">
+      <c r="G71" t="s">
         <v>576</v>
       </c>
-      <c r="E71" t="s">
+      <c r="H71" t="s">
         <v>577</v>
       </c>
-      <c r="F71" t="s">
-        <v>39</v>
-      </c>
-      <c r="G71" t="s">
+      <c r="I71" t="s">
+        <v>39</v>
+      </c>
+      <c r="J71" t="s">
         <v>578</v>
       </c>
-      <c r="H71" t="s">
+      <c r="K71" t="s">
         <v>579</v>
       </c>
-      <c r="L71" t="s">
+      <c r="O71" t="s">
         <v>12</v>
       </c>
-      <c r="M71" t="s">
+      <c r="P71" t="s">
         <v>574</v>
       </c>
-      <c r="P71" t="s">
+      <c r="S71" t="s">
         <v>575</v>
       </c>
-      <c r="Q71" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17">
+      <c r="T71" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20">
       <c r="A72" t="s">
         <v>580</v>
       </c>
@@ -5554,34 +6238,43 @@
         <v>581</v>
       </c>
       <c r="C72" t="s">
+        <v>581</v>
+      </c>
+      <c r="D72" t="s">
+        <v>827</v>
+      </c>
+      <c r="E72" t="s">
+        <v>826</v>
+      </c>
+      <c r="F72" t="s">
         <v>582</v>
       </c>
-      <c r="D72" t="s">
+      <c r="G72" t="s">
         <v>585</v>
       </c>
-      <c r="E72" t="s">
+      <c r="H72" t="s">
         <v>586</v>
       </c>
-      <c r="F72" t="s">
-        <v>39</v>
-      </c>
-      <c r="G72" t="s">
+      <c r="I72" t="s">
+        <v>39</v>
+      </c>
+      <c r="J72" t="s">
         <v>587</v>
       </c>
-      <c r="H72" t="s">
+      <c r="K72" t="s">
         <v>100</v>
       </c>
-      <c r="M72" t="s">
+      <c r="P72" t="s">
         <v>583</v>
       </c>
-      <c r="P72" t="s">
+      <c r="S72" t="s">
         <v>584</v>
       </c>
-      <c r="Q72" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17">
+      <c r="T72" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20">
       <c r="A73" t="s">
         <v>588</v>
       </c>
@@ -5589,37 +6282,46 @@
         <v>589</v>
       </c>
       <c r="C73" t="s">
+        <v>589</v>
+      </c>
+      <c r="D73" t="s">
+        <v>827</v>
+      </c>
+      <c r="E73" t="s">
+        <v>826</v>
+      </c>
+      <c r="F73" t="s">
         <v>590</v>
       </c>
-      <c r="D73" t="s">
+      <c r="G73" t="s">
         <v>593</v>
       </c>
-      <c r="E73" t="s">
+      <c r="H73" t="s">
         <v>89</v>
       </c>
-      <c r="F73" t="s">
-        <v>39</v>
-      </c>
-      <c r="G73" t="s">
+      <c r="I73" t="s">
+        <v>39</v>
+      </c>
+      <c r="J73" t="s">
         <v>90</v>
       </c>
-      <c r="H73" t="s">
+      <c r="K73" t="s">
         <v>594</v>
       </c>
-      <c r="L73" t="s">
+      <c r="O73" t="s">
         <v>12</v>
       </c>
-      <c r="M73" t="s">
+      <c r="P73" t="s">
         <v>591</v>
       </c>
-      <c r="P73" t="s">
+      <c r="S73" t="s">
         <v>592</v>
       </c>
-      <c r="Q73" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17">
+      <c r="T73" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20">
       <c r="A74" t="s">
         <v>595</v>
       </c>
@@ -5627,34 +6329,43 @@
         <v>596</v>
       </c>
       <c r="C74" t="s">
+        <v>596</v>
+      </c>
+      <c r="D74" t="s">
+        <v>827</v>
+      </c>
+      <c r="E74" t="s">
+        <v>826</v>
+      </c>
+      <c r="F74" t="s">
         <v>597</v>
       </c>
-      <c r="D74" t="s">
+      <c r="G74" t="s">
         <v>600</v>
       </c>
-      <c r="E74" t="s">
+      <c r="H74" t="s">
         <v>601</v>
       </c>
-      <c r="F74" t="s">
-        <v>39</v>
-      </c>
-      <c r="G74" t="s">
+      <c r="I74" t="s">
+        <v>39</v>
+      </c>
+      <c r="J74" t="s">
         <v>602</v>
       </c>
-      <c r="H74" t="s">
+      <c r="K74" t="s">
         <v>603</v>
       </c>
-      <c r="M74" t="s">
+      <c r="P74" t="s">
         <v>598</v>
       </c>
-      <c r="P74" t="s">
+      <c r="S74" t="s">
         <v>599</v>
       </c>
-      <c r="Q74" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17">
+      <c r="T74" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20">
       <c r="A75" t="s">
         <v>604</v>
       </c>
@@ -5662,37 +6373,46 @@
         <v>605</v>
       </c>
       <c r="C75" t="s">
+        <v>605</v>
+      </c>
+      <c r="D75" t="s">
+        <v>827</v>
+      </c>
+      <c r="E75" t="s">
+        <v>826</v>
+      </c>
+      <c r="F75" t="s">
         <v>606</v>
       </c>
-      <c r="D75" t="s">
+      <c r="G75" t="s">
         <v>609</v>
       </c>
-      <c r="E75" t="s">
+      <c r="H75" t="s">
         <v>610</v>
       </c>
-      <c r="F75" t="s">
+      <c r="I75" t="s">
         <v>10</v>
       </c>
-      <c r="G75" t="s">
+      <c r="J75" t="s">
         <v>611</v>
       </c>
-      <c r="H75" t="s">
+      <c r="K75" t="s">
         <v>612</v>
       </c>
-      <c r="L75" t="s">
+      <c r="O75" t="s">
         <v>12</v>
       </c>
-      <c r="M75" t="s">
+      <c r="P75" t="s">
         <v>607</v>
       </c>
-      <c r="P75" t="s">
+      <c r="S75" t="s">
         <v>608</v>
       </c>
-      <c r="Q75" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17">
+      <c r="T75" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20">
       <c r="A76" t="s">
         <v>613</v>
       </c>
@@ -5700,34 +6420,43 @@
         <v>614</v>
       </c>
       <c r="C76" t="s">
+        <v>614</v>
+      </c>
+      <c r="D76" t="s">
+        <v>827</v>
+      </c>
+      <c r="E76" t="s">
+        <v>826</v>
+      </c>
+      <c r="F76" t="s">
         <v>615</v>
       </c>
-      <c r="D76" t="s">
+      <c r="G76" t="s">
         <v>618</v>
       </c>
-      <c r="E76" t="s">
+      <c r="H76" t="s">
         <v>619</v>
       </c>
-      <c r="F76" t="s">
-        <v>39</v>
-      </c>
-      <c r="G76" t="s">
+      <c r="I76" t="s">
+        <v>39</v>
+      </c>
+      <c r="J76" t="s">
         <v>620</v>
       </c>
-      <c r="H76" t="s">
+      <c r="K76" t="s">
         <v>621</v>
       </c>
-      <c r="M76" t="s">
+      <c r="P76" t="s">
         <v>616</v>
       </c>
-      <c r="P76" t="s">
+      <c r="S76" t="s">
         <v>617</v>
       </c>
-      <c r="Q76" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17">
+      <c r="T76" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20">
       <c r="A77" t="s">
         <v>622</v>
       </c>
@@ -5735,37 +6464,46 @@
         <v>623</v>
       </c>
       <c r="C77" t="s">
+        <v>623</v>
+      </c>
+      <c r="D77" t="s">
+        <v>827</v>
+      </c>
+      <c r="E77" t="s">
+        <v>826</v>
+      </c>
+      <c r="F77" t="s">
         <v>624</v>
       </c>
-      <c r="D77" t="s">
+      <c r="G77" t="s">
         <v>627</v>
       </c>
-      <c r="E77" t="s">
+      <c r="H77" t="s">
         <v>628</v>
       </c>
-      <c r="F77" t="s">
-        <v>39</v>
-      </c>
-      <c r="G77" t="s">
+      <c r="I77" t="s">
+        <v>39</v>
+      </c>
+      <c r="J77" t="s">
         <v>455</v>
       </c>
-      <c r="H77" t="s">
+      <c r="K77" t="s">
         <v>629</v>
       </c>
-      <c r="L77" t="s">
+      <c r="O77" t="s">
         <v>12</v>
       </c>
-      <c r="M77" t="s">
+      <c r="P77" t="s">
         <v>625</v>
       </c>
-      <c r="P77" t="s">
+      <c r="S77" t="s">
         <v>626</v>
       </c>
-      <c r="Q77" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17">
+      <c r="T77" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20">
       <c r="A78" t="s">
         <v>630</v>
       </c>
@@ -5773,37 +6511,46 @@
         <v>631</v>
       </c>
       <c r="C78" t="s">
+        <v>631</v>
+      </c>
+      <c r="D78" t="s">
+        <v>827</v>
+      </c>
+      <c r="E78" t="s">
+        <v>826</v>
+      </c>
+      <c r="F78" t="s">
         <v>632</v>
       </c>
-      <c r="D78" t="s">
+      <c r="G78" t="s">
         <v>635</v>
       </c>
-      <c r="E78" t="s">
+      <c r="H78" t="s">
         <v>577</v>
       </c>
-      <c r="F78" t="s">
-        <v>39</v>
-      </c>
-      <c r="G78" t="s">
+      <c r="I78" t="s">
+        <v>39</v>
+      </c>
+      <c r="J78" t="s">
         <v>636</v>
       </c>
-      <c r="H78" t="s">
+      <c r="K78" t="s">
         <v>637</v>
       </c>
-      <c r="L78" t="s">
+      <c r="O78" t="s">
         <v>12</v>
       </c>
-      <c r="M78" t="s">
+      <c r="P78" t="s">
         <v>633</v>
       </c>
-      <c r="P78" t="s">
+      <c r="S78" t="s">
         <v>634</v>
       </c>
-      <c r="Q78" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17">
+      <c r="T78" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20">
       <c r="A79" t="s">
         <v>638</v>
       </c>
@@ -5811,34 +6558,43 @@
         <v>639</v>
       </c>
       <c r="C79" t="s">
+        <v>639</v>
+      </c>
+      <c r="D79" t="s">
+        <v>827</v>
+      </c>
+      <c r="E79" t="s">
+        <v>826</v>
+      </c>
+      <c r="F79" t="s">
         <v>640</v>
       </c>
-      <c r="D79" t="s">
+      <c r="G79" t="s">
         <v>643</v>
       </c>
-      <c r="E79" t="s">
+      <c r="H79" t="s">
         <v>31</v>
       </c>
-      <c r="F79" t="s">
-        <v>39</v>
-      </c>
-      <c r="G79" t="s">
+      <c r="I79" t="s">
+        <v>39</v>
+      </c>
+      <c r="J79" t="s">
         <v>644</v>
       </c>
-      <c r="H79" t="s">
+      <c r="K79" t="s">
         <v>645</v>
       </c>
-      <c r="M79" t="s">
+      <c r="P79" t="s">
         <v>641</v>
       </c>
-      <c r="P79" t="s">
+      <c r="S79" t="s">
         <v>642</v>
       </c>
-      <c r="Q79" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17">
+      <c r="T79" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20">
       <c r="A80" t="s">
         <v>646</v>
       </c>
@@ -5846,34 +6602,43 @@
         <v>647</v>
       </c>
       <c r="C80" t="s">
+        <v>647</v>
+      </c>
+      <c r="D80" t="s">
+        <v>827</v>
+      </c>
+      <c r="E80" t="s">
+        <v>826</v>
+      </c>
+      <c r="F80" t="s">
         <v>648</v>
       </c>
-      <c r="D80" t="s">
+      <c r="G80" t="s">
         <v>651</v>
       </c>
-      <c r="E80" t="s">
+      <c r="H80" t="s">
         <v>652</v>
       </c>
-      <c r="F80" t="s">
-        <v>39</v>
-      </c>
-      <c r="G80" t="s">
+      <c r="I80" t="s">
+        <v>39</v>
+      </c>
+      <c r="J80" t="s">
         <v>653</v>
       </c>
-      <c r="H80" t="s">
+      <c r="K80" t="s">
         <v>654</v>
       </c>
-      <c r="M80" t="s">
+      <c r="P80" t="s">
         <v>649</v>
       </c>
-      <c r="P80" t="s">
+      <c r="S80" t="s">
         <v>650</v>
       </c>
-      <c r="Q80" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17">
+      <c r="T80" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20">
       <c r="A81" t="s">
         <v>655</v>
       </c>
@@ -5881,37 +6646,46 @@
         <v>656</v>
       </c>
       <c r="C81" t="s">
+        <v>656</v>
+      </c>
+      <c r="D81" t="s">
+        <v>827</v>
+      </c>
+      <c r="E81" t="s">
+        <v>826</v>
+      </c>
+      <c r="F81" t="s">
         <v>657</v>
       </c>
-      <c r="D81" t="s">
+      <c r="G81" t="s">
         <v>659</v>
       </c>
-      <c r="E81" t="s">
+      <c r="H81" t="s">
         <v>292</v>
       </c>
-      <c r="F81" t="s">
-        <v>39</v>
-      </c>
-      <c r="G81" t="s">
+      <c r="I81" t="s">
+        <v>39</v>
+      </c>
+      <c r="J81" t="s">
         <v>177</v>
       </c>
-      <c r="H81" t="s">
+      <c r="K81" t="s">
         <v>293</v>
       </c>
-      <c r="L81" t="s">
+      <c r="O81" t="s">
         <v>12</v>
-      </c>
-      <c r="M81" t="s">
-        <v>658</v>
       </c>
       <c r="P81" t="s">
         <v>658</v>
       </c>
-      <c r="Q81" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17">
+      <c r="S81" t="s">
+        <v>658</v>
+      </c>
+      <c r="T81" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20">
       <c r="A82" t="s">
         <v>660</v>
       </c>
@@ -5919,37 +6693,46 @@
         <v>661</v>
       </c>
       <c r="C82" t="s">
+        <v>661</v>
+      </c>
+      <c r="D82" t="s">
+        <v>827</v>
+      </c>
+      <c r="E82" t="s">
+        <v>826</v>
+      </c>
+      <c r="F82" t="s">
         <v>662</v>
       </c>
-      <c r="D82" t="s">
+      <c r="G82" t="s">
         <v>664</v>
       </c>
-      <c r="E82" t="s">
+      <c r="H82" t="s">
         <v>428</v>
       </c>
-      <c r="F82" t="s">
-        <v>39</v>
-      </c>
-      <c r="G82" t="s">
+      <c r="I82" t="s">
+        <v>39</v>
+      </c>
+      <c r="J82" t="s">
         <v>429</v>
       </c>
-      <c r="H82" t="s">
+      <c r="K82" t="s">
         <v>100</v>
       </c>
-      <c r="L82" t="s">
+      <c r="O82" t="s">
         <v>12</v>
-      </c>
-      <c r="M82" t="s">
-        <v>663</v>
       </c>
       <c r="P82" t="s">
         <v>663</v>
       </c>
-      <c r="Q82" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17">
+      <c r="S82" t="s">
+        <v>663</v>
+      </c>
+      <c r="T82" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20">
       <c r="A83" t="s">
         <v>665</v>
       </c>
@@ -5957,34 +6740,43 @@
         <v>666</v>
       </c>
       <c r="C83" t="s">
+        <v>666</v>
+      </c>
+      <c r="D83" t="s">
+        <v>827</v>
+      </c>
+      <c r="E83" t="s">
+        <v>826</v>
+      </c>
+      <c r="F83" t="s">
         <v>667</v>
       </c>
-      <c r="D83" t="s">
+      <c r="G83" t="s">
         <v>670</v>
       </c>
-      <c r="E83" t="s">
+      <c r="H83" t="s">
         <v>671</v>
       </c>
-      <c r="F83" t="s">
-        <v>39</v>
-      </c>
-      <c r="G83" t="s">
+      <c r="I83" t="s">
+        <v>39</v>
+      </c>
+      <c r="J83" t="s">
         <v>672</v>
       </c>
-      <c r="H83" t="s">
+      <c r="K83" t="s">
         <v>673</v>
       </c>
-      <c r="M83" t="s">
+      <c r="P83" t="s">
         <v>668</v>
       </c>
-      <c r="P83" t="s">
+      <c r="S83" t="s">
         <v>669</v>
       </c>
-      <c r="Q83" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17">
+      <c r="T83" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20">
       <c r="A84" t="s">
         <v>674</v>
       </c>
@@ -5992,37 +6784,46 @@
         <v>675</v>
       </c>
       <c r="C84" t="s">
+        <v>675</v>
+      </c>
+      <c r="D84" t="s">
+        <v>827</v>
+      </c>
+      <c r="E84" t="s">
+        <v>826</v>
+      </c>
+      <c r="F84" t="s">
         <v>676</v>
       </c>
-      <c r="D84" t="s">
+      <c r="G84" t="s">
         <v>679</v>
       </c>
-      <c r="E84" t="s">
+      <c r="H84" t="s">
         <v>680</v>
       </c>
-      <c r="F84" t="s">
-        <v>39</v>
-      </c>
-      <c r="G84" t="s">
+      <c r="I84" t="s">
+        <v>39</v>
+      </c>
+      <c r="J84" t="s">
         <v>177</v>
       </c>
-      <c r="H84" t="s">
+      <c r="K84" t="s">
         <v>681</v>
       </c>
-      <c r="L84" t="s">
+      <c r="O84" t="s">
         <v>12</v>
       </c>
-      <c r="M84" t="s">
+      <c r="P84" t="s">
         <v>677</v>
       </c>
-      <c r="P84" t="s">
+      <c r="S84" t="s">
         <v>678</v>
       </c>
-      <c r="Q84" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17">
+      <c r="T84" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20">
       <c r="A85" t="s">
         <v>682</v>
       </c>
@@ -6030,37 +6831,46 @@
         <v>683</v>
       </c>
       <c r="C85" t="s">
+        <v>683</v>
+      </c>
+      <c r="D85" t="s">
+        <v>827</v>
+      </c>
+      <c r="E85" t="s">
+        <v>826</v>
+      </c>
+      <c r="F85" t="s">
         <v>684</v>
       </c>
-      <c r="D85" t="s">
+      <c r="G85" t="s">
         <v>687</v>
       </c>
-      <c r="E85" t="s">
+      <c r="H85" t="s">
         <v>47</v>
       </c>
-      <c r="F85" t="s">
-        <v>39</v>
-      </c>
-      <c r="G85" t="s">
+      <c r="I85" t="s">
+        <v>39</v>
+      </c>
+      <c r="J85" t="s">
         <v>48</v>
       </c>
-      <c r="H85" t="s">
+      <c r="K85" t="s">
         <v>688</v>
       </c>
-      <c r="L85" t="s">
+      <c r="O85" t="s">
         <v>74</v>
       </c>
-      <c r="M85" t="s">
+      <c r="P85" t="s">
         <v>685</v>
       </c>
-      <c r="P85" t="s">
+      <c r="S85" t="s">
         <v>686</v>
       </c>
-      <c r="Q85" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17">
+      <c r="T85" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20">
       <c r="A86" t="s">
         <v>689</v>
       </c>
@@ -6068,34 +6878,43 @@
         <v>690</v>
       </c>
       <c r="C86" t="s">
+        <v>690</v>
+      </c>
+      <c r="D86" t="s">
+        <v>827</v>
+      </c>
+      <c r="E86" t="s">
+        <v>826</v>
+      </c>
+      <c r="F86" t="s">
         <v>691</v>
       </c>
-      <c r="D86" t="s">
+      <c r="G86" t="s">
         <v>694</v>
       </c>
-      <c r="E86" t="s">
+      <c r="H86" t="s">
         <v>695</v>
       </c>
-      <c r="F86" t="s">
+      <c r="I86" t="s">
         <v>10</v>
       </c>
-      <c r="G86" t="s">
+      <c r="J86" t="s">
         <v>696</v>
       </c>
-      <c r="H86" t="s">
+      <c r="K86" t="s">
         <v>697</v>
       </c>
-      <c r="M86" t="s">
+      <c r="P86" t="s">
         <v>692</v>
       </c>
-      <c r="P86" t="s">
+      <c r="S86" t="s">
         <v>693</v>
       </c>
-      <c r="Q86" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17">
+      <c r="T86" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20">
       <c r="A87" t="s">
         <v>698</v>
       </c>
@@ -6103,37 +6922,46 @@
         <v>699</v>
       </c>
       <c r="C87" t="s">
+        <v>699</v>
+      </c>
+      <c r="D87" t="s">
+        <v>827</v>
+      </c>
+      <c r="E87" t="s">
+        <v>826</v>
+      </c>
+      <c r="F87" t="s">
         <v>700</v>
       </c>
-      <c r="D87" t="s">
+      <c r="G87" t="s">
         <v>703</v>
       </c>
-      <c r="E87" t="s">
+      <c r="H87" t="s">
         <v>704</v>
       </c>
-      <c r="F87" t="s">
-        <v>39</v>
-      </c>
-      <c r="G87" t="s">
+      <c r="I87" t="s">
+        <v>39</v>
+      </c>
+      <c r="J87" t="s">
         <v>705</v>
       </c>
-      <c r="H87" t="s">
+      <c r="K87" t="s">
         <v>706</v>
       </c>
-      <c r="L87" t="s">
+      <c r="O87" t="s">
         <v>12</v>
       </c>
-      <c r="M87" t="s">
+      <c r="P87" t="s">
         <v>701</v>
       </c>
-      <c r="P87" t="s">
+      <c r="S87" t="s">
         <v>702</v>
       </c>
-      <c r="Q87" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17">
+      <c r="T87" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20">
       <c r="A88" t="s">
         <v>707</v>
       </c>
@@ -6141,37 +6969,46 @@
         <v>708</v>
       </c>
       <c r="C88" t="s">
+        <v>708</v>
+      </c>
+      <c r="D88" t="s">
+        <v>828</v>
+      </c>
+      <c r="E88" t="s">
+        <v>826</v>
+      </c>
+      <c r="F88" t="s">
         <v>709</v>
       </c>
-      <c r="D88" t="s">
+      <c r="G88" t="s">
         <v>711</v>
       </c>
-      <c r="E88" t="s">
+      <c r="H88" t="s">
         <v>712</v>
       </c>
-      <c r="F88" t="s">
-        <v>39</v>
-      </c>
-      <c r="G88" t="s">
+      <c r="I88" t="s">
+        <v>39</v>
+      </c>
+      <c r="J88" t="s">
         <v>235</v>
       </c>
-      <c r="H88" t="s">
+      <c r="K88" t="s">
         <v>713</v>
       </c>
-      <c r="L88" t="s">
+      <c r="O88" t="s">
         <v>12</v>
-      </c>
-      <c r="M88" t="s">
-        <v>710</v>
       </c>
       <c r="P88" t="s">
         <v>710</v>
       </c>
-      <c r="Q88" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17">
+      <c r="S88" t="s">
+        <v>710</v>
+      </c>
+      <c r="T88" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20">
       <c r="A89" t="s">
         <v>714</v>
       </c>
@@ -6179,34 +7016,43 @@
         <v>715</v>
       </c>
       <c r="C89" t="s">
+        <v>715</v>
+      </c>
+      <c r="D89" t="s">
+        <v>827</v>
+      </c>
+      <c r="E89" t="s">
+        <v>826</v>
+      </c>
+      <c r="F89" t="s">
         <v>716</v>
       </c>
-      <c r="D89" t="s">
+      <c r="G89" t="s">
         <v>719</v>
       </c>
-      <c r="E89" t="s">
+      <c r="H89" t="s">
         <v>720</v>
       </c>
-      <c r="F89" t="s">
-        <v>39</v>
-      </c>
-      <c r="G89" t="s">
+      <c r="I89" t="s">
+        <v>39</v>
+      </c>
+      <c r="J89" t="s">
         <v>374</v>
       </c>
-      <c r="H89" t="s">
+      <c r="K89" t="s">
         <v>721</v>
       </c>
-      <c r="M89" t="s">
+      <c r="P89" t="s">
         <v>717</v>
       </c>
-      <c r="P89" t="s">
+      <c r="S89" t="s">
         <v>718</v>
       </c>
-      <c r="Q89" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17">
+      <c r="T89" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20">
       <c r="A90" t="s">
         <v>722</v>
       </c>
@@ -6214,34 +7060,43 @@
         <v>723</v>
       </c>
       <c r="C90" t="s">
+        <v>723</v>
+      </c>
+      <c r="D90" t="s">
+        <v>827</v>
+      </c>
+      <c r="E90" t="s">
+        <v>826</v>
+      </c>
+      <c r="F90" t="s">
         <v>724</v>
       </c>
-      <c r="D90" t="s">
+      <c r="G90" t="s">
         <v>727</v>
       </c>
-      <c r="E90" t="s">
+      <c r="H90" t="s">
         <v>728</v>
       </c>
-      <c r="F90" t="s">
-        <v>39</v>
-      </c>
-      <c r="G90" t="s">
+      <c r="I90" t="s">
+        <v>39</v>
+      </c>
+      <c r="J90" t="s">
         <v>729</v>
       </c>
-      <c r="H90" t="s">
+      <c r="K90" t="s">
         <v>730</v>
       </c>
-      <c r="M90" t="s">
+      <c r="P90" t="s">
         <v>725</v>
       </c>
-      <c r="P90" t="s">
+      <c r="S90" t="s">
         <v>726</v>
       </c>
-      <c r="Q90" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17">
+      <c r="T90" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20">
       <c r="A91" t="s">
         <v>731</v>
       </c>
@@ -6249,34 +7104,43 @@
         <v>732</v>
       </c>
       <c r="C91" t="s">
+        <v>732</v>
+      </c>
+      <c r="D91" t="s">
+        <v>827</v>
+      </c>
+      <c r="E91" t="s">
+        <v>826</v>
+      </c>
+      <c r="F91" t="s">
         <v>733</v>
       </c>
-      <c r="D91" t="s">
+      <c r="G91" t="s">
         <v>735</v>
       </c>
-      <c r="E91" t="s">
+      <c r="H91" t="s">
         <v>736</v>
       </c>
-      <c r="F91" t="s">
-        <v>39</v>
-      </c>
-      <c r="G91" t="s">
+      <c r="I91" t="s">
+        <v>39</v>
+      </c>
+      <c r="J91" t="s">
         <v>737</v>
       </c>
-      <c r="H91" t="s">
+      <c r="K91" t="s">
         <v>738</v>
-      </c>
-      <c r="M91" t="s">
-        <v>734</v>
       </c>
       <c r="P91" t="s">
         <v>734</v>
       </c>
-      <c r="Q91" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17">
+      <c r="S91" t="s">
+        <v>734</v>
+      </c>
+      <c r="T91" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20">
       <c r="A92" t="s">
         <v>739</v>
       </c>
@@ -6284,34 +7148,43 @@
         <v>740</v>
       </c>
       <c r="C92" t="s">
+        <v>740</v>
+      </c>
+      <c r="D92" t="s">
+        <v>827</v>
+      </c>
+      <c r="E92" t="s">
+        <v>826</v>
+      </c>
+      <c r="F92" t="s">
         <v>741</v>
       </c>
-      <c r="D92" t="s">
+      <c r="G92" t="s">
         <v>743</v>
       </c>
-      <c r="E92" t="s">
+      <c r="H92" t="s">
         <v>744</v>
       </c>
-      <c r="F92" t="s">
-        <v>39</v>
-      </c>
-      <c r="G92" t="s">
+      <c r="I92" t="s">
+        <v>39</v>
+      </c>
+      <c r="J92" t="s">
         <v>737</v>
       </c>
-      <c r="H92" t="s">
+      <c r="K92" t="s">
         <v>745</v>
-      </c>
-      <c r="M92" t="s">
-        <v>742</v>
       </c>
       <c r="P92" t="s">
         <v>742</v>
       </c>
-      <c r="Q92" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17">
+      <c r="S92" t="s">
+        <v>742</v>
+      </c>
+      <c r="T92" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20">
       <c r="A93" t="s">
         <v>746</v>
       </c>
@@ -6319,34 +7192,43 @@
         <v>747</v>
       </c>
       <c r="C93" t="s">
+        <v>747</v>
+      </c>
+      <c r="D93" t="s">
+        <v>827</v>
+      </c>
+      <c r="E93" t="s">
+        <v>826</v>
+      </c>
+      <c r="F93" t="s">
         <v>748</v>
       </c>
-      <c r="D93" t="s">
+      <c r="G93" t="s">
         <v>751</v>
       </c>
-      <c r="E93" t="s">
+      <c r="H93" t="s">
         <v>744</v>
       </c>
-      <c r="F93" t="s">
-        <v>39</v>
-      </c>
-      <c r="G93" t="s">
+      <c r="I93" t="s">
+        <v>39</v>
+      </c>
+      <c r="J93" t="s">
         <v>737</v>
       </c>
-      <c r="H93" t="s">
+      <c r="K93" t="s">
         <v>752</v>
       </c>
-      <c r="M93" t="s">
+      <c r="P93" t="s">
         <v>749</v>
       </c>
-      <c r="P93" t="s">
+      <c r="S93" t="s">
         <v>750</v>
       </c>
-      <c r="Q93" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17">
+      <c r="T93" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20">
       <c r="A94" t="s">
         <v>753</v>
       </c>
@@ -6354,37 +7236,46 @@
         <v>754</v>
       </c>
       <c r="C94" t="s">
+        <v>754</v>
+      </c>
+      <c r="D94" t="s">
+        <v>827</v>
+      </c>
+      <c r="E94" t="s">
+        <v>826</v>
+      </c>
+      <c r="F94" t="s">
         <v>755</v>
       </c>
-      <c r="D94" t="s">
+      <c r="G94" t="s">
         <v>758</v>
       </c>
-      <c r="E94" t="s">
+      <c r="H94" t="s">
         <v>159</v>
       </c>
-      <c r="F94" t="s">
-        <v>39</v>
-      </c>
-      <c r="G94" t="s">
+      <c r="I94" t="s">
+        <v>39</v>
+      </c>
+      <c r="J94" t="s">
         <v>160</v>
       </c>
-      <c r="H94" t="s">
+      <c r="K94" t="s">
         <v>759</v>
       </c>
-      <c r="L94" t="s">
+      <c r="O94" t="s">
         <v>12</v>
       </c>
-      <c r="M94" t="s">
+      <c r="P94" t="s">
         <v>756</v>
       </c>
-      <c r="P94" t="s">
+      <c r="S94" t="s">
         <v>757</v>
       </c>
-      <c r="Q94" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17">
+      <c r="T94" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20">
       <c r="A95" t="s">
         <v>760</v>
       </c>
@@ -6392,34 +7283,43 @@
         <v>761</v>
       </c>
       <c r="C95" t="s">
+        <v>761</v>
+      </c>
+      <c r="D95" t="s">
+        <v>827</v>
+      </c>
+      <c r="E95" t="s">
+        <v>826</v>
+      </c>
+      <c r="F95" t="s">
         <v>762</v>
       </c>
-      <c r="D95" t="s">
+      <c r="G95" t="s">
         <v>765</v>
       </c>
-      <c r="E95" t="s">
+      <c r="H95" t="s">
         <v>766</v>
       </c>
-      <c r="F95" t="s">
-        <v>39</v>
-      </c>
-      <c r="G95" t="s">
+      <c r="I95" t="s">
+        <v>39</v>
+      </c>
+      <c r="J95" t="s">
         <v>374</v>
       </c>
-      <c r="H95" t="s">
+      <c r="K95" t="s">
         <v>767</v>
       </c>
-      <c r="M95" t="s">
+      <c r="P95" t="s">
         <v>763</v>
       </c>
-      <c r="P95" t="s">
+      <c r="S95" t="s">
         <v>764</v>
       </c>
-      <c r="Q95" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17">
+      <c r="T95" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20">
       <c r="A96" t="s">
         <v>768</v>
       </c>
@@ -6427,37 +7327,46 @@
         <v>769</v>
       </c>
       <c r="C96" t="s">
+        <v>769</v>
+      </c>
+      <c r="D96" t="s">
+        <v>827</v>
+      </c>
+      <c r="E96" t="s">
+        <v>826</v>
+      </c>
+      <c r="F96" t="s">
         <v>770</v>
       </c>
-      <c r="D96" t="s">
+      <c r="G96" t="s">
         <v>773</v>
       </c>
-      <c r="E96" t="s">
+      <c r="H96" t="s">
         <v>774</v>
       </c>
-      <c r="F96" t="s">
-        <v>39</v>
-      </c>
-      <c r="G96" t="s">
+      <c r="I96" t="s">
+        <v>39</v>
+      </c>
+      <c r="J96" t="s">
         <v>107</v>
       </c>
-      <c r="H96" t="s">
+      <c r="K96" t="s">
         <v>775</v>
       </c>
-      <c r="L96" t="s">
+      <c r="O96" t="s">
         <v>12</v>
       </c>
-      <c r="M96" t="s">
+      <c r="P96" t="s">
         <v>771</v>
       </c>
-      <c r="P96" t="s">
+      <c r="S96" t="s">
         <v>772</v>
       </c>
-      <c r="Q96" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17">
+      <c r="T96" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20">
       <c r="A97" t="s">
         <v>776</v>
       </c>
@@ -6465,31 +7374,40 @@
         <v>777</v>
       </c>
       <c r="C97" t="s">
+        <v>777</v>
+      </c>
+      <c r="D97" t="s">
+        <v>827</v>
+      </c>
+      <c r="E97" t="s">
+        <v>826</v>
+      </c>
+      <c r="F97" t="s">
         <v>778</v>
       </c>
-      <c r="D97" t="s">
+      <c r="G97" t="s">
         <v>780</v>
       </c>
-      <c r="E97" t="s">
+      <c r="H97" t="s">
         <v>781</v>
       </c>
-      <c r="F97" t="s">
+      <c r="I97" t="s">
         <v>10</v>
       </c>
-      <c r="G97" t="s">
+      <c r="J97" t="s">
         <v>782</v>
       </c>
-      <c r="H97" t="s">
+      <c r="K97" t="s">
         <v>783</v>
       </c>
-      <c r="M97" t="s">
+      <c r="P97" t="s">
         <v>779</v>
       </c>
-      <c r="Q97" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17">
+      <c r="T97" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20">
       <c r="A98" t="s">
         <v>784</v>
       </c>
@@ -6497,37 +7415,46 @@
         <v>785</v>
       </c>
       <c r="C98" t="s">
+        <v>785</v>
+      </c>
+      <c r="D98" t="s">
+        <v>827</v>
+      </c>
+      <c r="E98" t="s">
+        <v>826</v>
+      </c>
+      <c r="F98" t="s">
         <v>786</v>
       </c>
-      <c r="D98" t="s">
+      <c r="G98" t="s">
         <v>788</v>
       </c>
-      <c r="E98" t="s">
+      <c r="H98" t="s">
         <v>789</v>
       </c>
-      <c r="F98" t="s">
-        <v>39</v>
-      </c>
-      <c r="G98" t="s">
+      <c r="I98" t="s">
+        <v>39</v>
+      </c>
+      <c r="J98" t="s">
         <v>185</v>
       </c>
-      <c r="H98" t="s">
+      <c r="K98" t="s">
         <v>790</v>
       </c>
-      <c r="L98" t="s">
+      <c r="O98" t="s">
         <v>12</v>
-      </c>
-      <c r="M98" t="s">
-        <v>787</v>
       </c>
       <c r="P98" t="s">
         <v>787</v>
       </c>
-      <c r="Q98" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17">
+      <c r="S98" t="s">
+        <v>787</v>
+      </c>
+      <c r="T98" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20">
       <c r="A99" t="s">
         <v>791</v>
       </c>
@@ -6535,34 +7462,43 @@
         <v>792</v>
       </c>
       <c r="C99" t="s">
+        <v>792</v>
+      </c>
+      <c r="D99" t="s">
+        <v>827</v>
+      </c>
+      <c r="E99" t="s">
+        <v>826</v>
+      </c>
+      <c r="F99" t="s">
         <v>793</v>
       </c>
-      <c r="D99" t="s">
+      <c r="G99" t="s">
         <v>796</v>
       </c>
-      <c r="E99" t="s">
+      <c r="H99" t="s">
         <v>406</v>
       </c>
-      <c r="F99" t="s">
-        <v>39</v>
-      </c>
-      <c r="G99" t="s">
+      <c r="I99" t="s">
+        <v>39</v>
+      </c>
+      <c r="J99" t="s">
         <v>209</v>
       </c>
-      <c r="H99" t="s">
+      <c r="K99" t="s">
         <v>797</v>
       </c>
-      <c r="M99" t="s">
+      <c r="P99" t="s">
         <v>794</v>
       </c>
-      <c r="P99" t="s">
+      <c r="S99" t="s">
         <v>795</v>
       </c>
-      <c r="Q99" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17">
+      <c r="T99" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20">
       <c r="A100" t="s">
         <v>798</v>
       </c>
@@ -6570,30 +7506,39 @@
         <v>799</v>
       </c>
       <c r="C100" t="s">
+        <v>799</v>
+      </c>
+      <c r="D100" t="s">
+        <v>827</v>
+      </c>
+      <c r="E100" t="s">
+        <v>826</v>
+      </c>
+      <c r="F100" t="s">
         <v>800</v>
       </c>
-      <c r="D100" t="s">
+      <c r="G100" t="s">
         <v>803</v>
       </c>
-      <c r="E100" t="s">
+      <c r="H100" t="s">
         <v>552</v>
       </c>
-      <c r="F100" t="s">
-        <v>39</v>
-      </c>
-      <c r="G100" t="s">
+      <c r="I100" t="s">
+        <v>39</v>
+      </c>
+      <c r="J100" t="s">
         <v>478</v>
       </c>
-      <c r="H100" t="s">
+      <c r="K100" t="s">
         <v>804</v>
       </c>
-      <c r="M100" t="s">
+      <c r="P100" t="s">
         <v>801</v>
       </c>
-      <c r="P100" t="s">
+      <c r="S100" t="s">
         <v>802</v>
       </c>
-      <c r="Q100" t="s">
+      <c r="T100" t="s">
         <v>1</v>
       </c>
     </row>
